--- a/src/main/resources/template.xlsx
+++ b/src/main/resources/template.xlsx
@@ -8,8 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ЕИС Работающая Бурятия\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9829BADF-6280-465D-9B48-921364F7F3A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Pj4AtxYRyXtqB0K5aS2kOqdEHDgQOztOKQn/gUhxVfkyrafdpvxCEEeV0k+gHAsFgP3uXsOF+G8rkm9pIn1zqA==" workbookSaltValue="woNd2DvrHVn5Ka45imLHrg==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276D64D3-E003-47AF-B4E4-ABC118D88059}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="X63vqxGaR0w3itOZCFSudR4Bv4X4jNKmFGHlbFTqctsd/u8oR4S3M35A+12MYHgTdmTrEWGpbu8lqphyfAAk9w==" workbookSaltValue="kUk0Az6feS+owcQsOXQmqw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,10 +17,11 @@
     <sheet name="ДАННЫЕ О ВАШЕЙ ОРГАНИЗАЦИИ" sheetId="1" r:id="rId1"/>
     <sheet name="АДРЕСНАЯ ИНФОРМАЦИЯ" sheetId="6" r:id="rId2"/>
     <sheet name="РАБОТНИКИ ВЫХОДЯЩИЕ НА РАБОТУ" sheetId="7" r:id="rId3"/>
-    <sheet name="Справочник министерств" sheetId="4" r:id="rId4"/>
+    <sheet name="КУРИРУЮЩЕЕ МИНИСТЕРСТВО" sheetId="9" r:id="rId4"/>
     <sheet name="Пример ДАННЫЕ О ВАШЕЙ ОРГАНИЗА " sheetId="2" r:id="rId5"/>
     <sheet name="Пример АДРЕСНАЯ ИНФОРМАЦИЯ" sheetId="5" r:id="rId6"/>
-    <sheet name="Пример РАБОТНИКИ ВЫХОДЯЩИЕ НА Р" sheetId="8" r:id="rId7"/>
+    <sheet name="Пример Курирующее министерство" sheetId="4" r:id="rId7"/>
+    <sheet name="Пример РАБОТНИКИ ВЫХОДЯЩИЕ НА Р" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>ООО Ромашка</t>
   </si>
@@ -310,30 +311,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>Основной вид осуществляемой деятельности (отрасль)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF313131"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Номер Министерства, курирующее вашу деятельность (берется № из листа Справочник министерств)</t>
     </r>
   </si>
   <si>
@@ -575,32 +552,6 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ОГРН  (13 цифр)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>e-mail</t>
     </r>
   </si>
@@ -667,32 +618,6 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF313131"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Номер Министерства, курирующее вашу деятельность (берется № из листа Справочник министерств)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">* </t>
     </r>
     <r>
@@ -788,6 +713,66 @@
   </si>
   <si>
     <t>Численность работников, не подлежащих переводу на дистанционный режим работы, осуществляющих деятельность  фактическому адресу</t>
+  </si>
+  <si>
+    <t>Посмотреть пример заполнения</t>
+  </si>
+  <si>
+    <t>Назад к заполнению</t>
+  </si>
+  <si>
+    <t>Версия шаблона 01</t>
+  </si>
+  <si>
+    <t>Просмотреть пример</t>
+  </si>
+  <si>
+    <t>Вернуться к заполнению</t>
+  </si>
+  <si>
+    <t>Выбор</t>
+  </si>
+  <si>
+    <t>Х</t>
+  </si>
+  <si>
+    <t>Управление Ветеринарии</t>
+  </si>
+  <si>
+    <t>Ветеринарные клиники, ветеринарные аптеки, ветеринарные кабинеты, зоомагазины, организации, занимающиеся отловом животных без владельцев</t>
+  </si>
+  <si>
+    <t>Вернуть к заполнению</t>
+  </si>
+  <si>
+    <t>Поставьте в столбце выбор символ Х
+Выбрать можно только одно министерство!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ОГРН  (13 или 15 цифр)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -899,7 +884,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1134,13 +1119,171 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1196,74 +1339,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1288,6 +1377,120 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="20" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Вывод" xfId="1" builtinId="21"/>
@@ -1310,6 +1513,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -1614,88 +1820,88 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.5703125" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="50.42578125" customWidth="1"/>
+    <col min="4" max="4" width="46.140625" customWidth="1"/>
     <col min="5" max="5" width="57.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="42"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="56" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="47"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="43"/>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="48"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="43"/>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="43"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="B6" s="43"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="49"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -1712,55 +1918,59 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="46"/>
+      <c r="A10" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="69"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="48"/>
+      <c r="A11" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="51"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="50"/>
+      <c r="A12" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="53"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="50"/>
+      <c r="A13" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="53"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="50"/>
+    <row r="14" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="55"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="57" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8Wu0ZHbS1xdg9bufemBpSBkyXNPh+gWu21iBIZsV49HgOTmMKUCYaXleYfxodLqEboF0PIKgJGb9MHkQs38wkA==" saltValue="22zRttOlCgpK8j0FljXoFA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5AVdqQzUuNz7GAwj8YJxj/LmgRHpX1EX+4xdPYIdd3o0yqFFzY7GQEKqPkYcrcxuPa8SBksA/5OmDIDhw3D6/A==" saltValue="ien8wy5wMspg57SfBYXDZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B7">
     <cfRule type="containsBlanks" dxfId="5" priority="8">
@@ -1772,22 +1982,14 @@
       <formula>LEN(TRIM(E2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="containsBlanks" priority="6">
-      <formula>LEN(TRIM(E4))=0</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="3" priority="5">
-      <formula>LEN(TRIM(E4))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>AND(LEN($B$4)&lt;&gt;10,LEN($B$4)&lt;&gt;12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" priority="2">
-      <formula>LEN($B$5)&lt;&gt;13</formula>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>AND(LEN($B$5)&lt;&gt;13,LEN($B$5)&lt;&gt;15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B14">
@@ -1795,1462 +1997,1541 @@
       <formula>LEN(TRIM(B11))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E1" location="'Пример ДАННЫЕ О ВАШЕЙ ОРГАНИЗА '!A1" display="Посмотреть пример заполнения" xr:uid="{733EFB04-6A1F-40FD-A829-F52994521F1F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B300"/>
+  <dimension ref="A1:F300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="3"/>
+    <col min="3" max="5" width="8.85546875" style="3"/>
+    <col min="6" max="6" width="19.5703125" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="53"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="53"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="53"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="53"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
-      <c r="B20" s="53"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="53"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
-      <c r="B22" s="53"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
-      <c r="B23" s="53"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="53"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
-      <c r="B25" s="53"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
-      <c r="B26" s="53"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
-      <c r="B27" s="53"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="53"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="53"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
-      <c r="B30" s="53"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
-      <c r="B31" s="53"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
-      <c r="B32" s="53"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
-      <c r="B33" s="53"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
-      <c r="B34" s="53"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
-      <c r="B35" s="53"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="53"/>
-      <c r="B36" s="53"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
-      <c r="B37" s="53"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
-      <c r="B38" s="53"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="53"/>
-      <c r="B39" s="53"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
-      <c r="B40" s="53"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="53"/>
-      <c r="B41" s="53"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="36"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="53"/>
-      <c r="B42" s="53"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="53"/>
-      <c r="B43" s="53"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="36"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="53"/>
-      <c r="B44" s="53"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="53"/>
-      <c r="B45" s="53"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="53"/>
-      <c r="B46" s="53"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="53"/>
-      <c r="B47" s="53"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
-      <c r="B48" s="53"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="53"/>
-      <c r="B49" s="53"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="36"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
-      <c r="B50" s="53"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="53"/>
-      <c r="B51" s="53"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="36"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="53"/>
-      <c r="B52" s="53"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="53"/>
-      <c r="B53" s="53"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="53"/>
-      <c r="B54" s="53"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="53"/>
-      <c r="B55" s="53"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="53"/>
-      <c r="B56" s="53"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="53"/>
-      <c r="B57" s="53"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="36"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="53"/>
-      <c r="B58" s="53"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="36"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="53"/>
-      <c r="B59" s="53"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="36"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="53"/>
-      <c r="B60" s="53"/>
+      <c r="A60" s="36"/>
+      <c r="B60" s="36"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="53"/>
-      <c r="B61" s="53"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="36"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="53"/>
-      <c r="B62" s="53"/>
+      <c r="A62" s="36"/>
+      <c r="B62" s="36"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="53"/>
-      <c r="B63" s="53"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="36"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="53"/>
-      <c r="B64" s="53"/>
+      <c r="A64" s="36"/>
+      <c r="B64" s="36"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="53"/>
-      <c r="B65" s="53"/>
+      <c r="A65" s="36"/>
+      <c r="B65" s="36"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="53"/>
-      <c r="B66" s="53"/>
+      <c r="A66" s="36"/>
+      <c r="B66" s="36"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="53"/>
-      <c r="B67" s="53"/>
+      <c r="A67" s="36"/>
+      <c r="B67" s="36"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="53"/>
-      <c r="B68" s="53"/>
+      <c r="A68" s="36"/>
+      <c r="B68" s="36"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="53"/>
-      <c r="B69" s="53"/>
+      <c r="A69" s="36"/>
+      <c r="B69" s="36"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="53"/>
-      <c r="B70" s="53"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="36"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="53"/>
-      <c r="B71" s="53"/>
+      <c r="A71" s="36"/>
+      <c r="B71" s="36"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="53"/>
-      <c r="B72" s="53"/>
+      <c r="A72" s="36"/>
+      <c r="B72" s="36"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="53"/>
-      <c r="B73" s="53"/>
+      <c r="A73" s="36"/>
+      <c r="B73" s="36"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="53"/>
-      <c r="B74" s="53"/>
+      <c r="A74" s="36"/>
+      <c r="B74" s="36"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="53"/>
-      <c r="B75" s="53"/>
+      <c r="A75" s="36"/>
+      <c r="B75" s="36"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="53"/>
-      <c r="B76" s="53"/>
+      <c r="A76" s="36"/>
+      <c r="B76" s="36"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="53"/>
-      <c r="B77" s="53"/>
+      <c r="A77" s="36"/>
+      <c r="B77" s="36"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="53"/>
-      <c r="B78" s="53"/>
+      <c r="A78" s="36"/>
+      <c r="B78" s="36"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="53"/>
-      <c r="B79" s="53"/>
+      <c r="A79" s="36"/>
+      <c r="B79" s="36"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="53"/>
-      <c r="B80" s="53"/>
+      <c r="A80" s="36"/>
+      <c r="B80" s="36"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="53"/>
-      <c r="B81" s="53"/>
+      <c r="A81" s="36"/>
+      <c r="B81" s="36"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="53"/>
-      <c r="B82" s="53"/>
+      <c r="A82" s="36"/>
+      <c r="B82" s="36"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="53"/>
-      <c r="B83" s="53"/>
+      <c r="A83" s="36"/>
+      <c r="B83" s="36"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="53"/>
-      <c r="B84" s="53"/>
+      <c r="A84" s="36"/>
+      <c r="B84" s="36"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="53"/>
-      <c r="B85" s="53"/>
+      <c r="A85" s="36"/>
+      <c r="B85" s="36"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="53"/>
-      <c r="B86" s="53"/>
+      <c r="A86" s="36"/>
+      <c r="B86" s="36"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="53"/>
-      <c r="B87" s="53"/>
+      <c r="A87" s="36"/>
+      <c r="B87" s="36"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="53"/>
-      <c r="B88" s="53"/>
+      <c r="A88" s="36"/>
+      <c r="B88" s="36"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="53"/>
-      <c r="B89" s="53"/>
+      <c r="A89" s="36"/>
+      <c r="B89" s="36"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="53"/>
-      <c r="B90" s="53"/>
+      <c r="A90" s="36"/>
+      <c r="B90" s="36"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="53"/>
-      <c r="B91" s="53"/>
+      <c r="A91" s="36"/>
+      <c r="B91" s="36"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="53"/>
-      <c r="B92" s="53"/>
+      <c r="A92" s="36"/>
+      <c r="B92" s="36"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="53"/>
-      <c r="B93" s="53"/>
+      <c r="A93" s="36"/>
+      <c r="B93" s="36"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="53"/>
-      <c r="B94" s="53"/>
+      <c r="A94" s="36"/>
+      <c r="B94" s="36"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="53"/>
-      <c r="B95" s="53"/>
+      <c r="A95" s="36"/>
+      <c r="B95" s="36"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="53"/>
-      <c r="B96" s="53"/>
+      <c r="A96" s="36"/>
+      <c r="B96" s="36"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="53"/>
-      <c r="B97" s="53"/>
+      <c r="A97" s="36"/>
+      <c r="B97" s="36"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="53"/>
-      <c r="B98" s="53"/>
+      <c r="A98" s="36"/>
+      <c r="B98" s="36"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="53"/>
-      <c r="B99" s="53"/>
+      <c r="A99" s="36"/>
+      <c r="B99" s="36"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="53"/>
-      <c r="B100" s="53"/>
+      <c r="A100" s="36"/>
+      <c r="B100" s="36"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="53"/>
-      <c r="B101" s="53"/>
+      <c r="A101" s="36"/>
+      <c r="B101" s="36"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="53"/>
-      <c r="B102" s="53"/>
+      <c r="A102" s="36"/>
+      <c r="B102" s="36"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="53"/>
-      <c r="B103" s="53"/>
+      <c r="A103" s="36"/>
+      <c r="B103" s="36"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="53"/>
-      <c r="B104" s="53"/>
+      <c r="A104" s="36"/>
+      <c r="B104" s="36"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="53"/>
-      <c r="B105" s="53"/>
+      <c r="A105" s="36"/>
+      <c r="B105" s="36"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="53"/>
-      <c r="B106" s="53"/>
+      <c r="A106" s="36"/>
+      <c r="B106" s="36"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="53"/>
-      <c r="B107" s="53"/>
+      <c r="A107" s="36"/>
+      <c r="B107" s="36"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="53"/>
-      <c r="B108" s="53"/>
+      <c r="A108" s="36"/>
+      <c r="B108" s="36"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="53"/>
-      <c r="B109" s="53"/>
+      <c r="A109" s="36"/>
+      <c r="B109" s="36"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="53"/>
-      <c r="B110" s="53"/>
+      <c r="A110" s="36"/>
+      <c r="B110" s="36"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="53"/>
-      <c r="B111" s="53"/>
+      <c r="A111" s="36"/>
+      <c r="B111" s="36"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="53"/>
-      <c r="B112" s="53"/>
+      <c r="A112" s="36"/>
+      <c r="B112" s="36"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="53"/>
-      <c r="B113" s="53"/>
+      <c r="A113" s="36"/>
+      <c r="B113" s="36"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="53"/>
-      <c r="B114" s="53"/>
+      <c r="A114" s="36"/>
+      <c r="B114" s="36"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="53"/>
-      <c r="B115" s="53"/>
+      <c r="A115" s="36"/>
+      <c r="B115" s="36"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="53"/>
-      <c r="B116" s="53"/>
+      <c r="A116" s="36"/>
+      <c r="B116" s="36"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="53"/>
-      <c r="B117" s="53"/>
+      <c r="A117" s="36"/>
+      <c r="B117" s="36"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="53"/>
-      <c r="B118" s="53"/>
+      <c r="A118" s="36"/>
+      <c r="B118" s="36"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="53"/>
-      <c r="B119" s="53"/>
+      <c r="A119" s="36"/>
+      <c r="B119" s="36"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="53"/>
-      <c r="B120" s="53"/>
+      <c r="A120" s="36"/>
+      <c r="B120" s="36"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="53"/>
-      <c r="B121" s="53"/>
+      <c r="A121" s="36"/>
+      <c r="B121" s="36"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="53"/>
-      <c r="B122" s="53"/>
+      <c r="A122" s="36"/>
+      <c r="B122" s="36"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="53"/>
-      <c r="B123" s="53"/>
+      <c r="A123" s="36"/>
+      <c r="B123" s="36"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="53"/>
-      <c r="B124" s="53"/>
+      <c r="A124" s="36"/>
+      <c r="B124" s="36"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="53"/>
-      <c r="B125" s="53"/>
+      <c r="A125" s="36"/>
+      <c r="B125" s="36"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="53"/>
-      <c r="B126" s="53"/>
+      <c r="A126" s="36"/>
+      <c r="B126" s="36"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="53"/>
-      <c r="B127" s="53"/>
+      <c r="A127" s="36"/>
+      <c r="B127" s="36"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="53"/>
-      <c r="B128" s="53"/>
+      <c r="A128" s="36"/>
+      <c r="B128" s="36"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="53"/>
-      <c r="B129" s="53"/>
+      <c r="A129" s="36"/>
+      <c r="B129" s="36"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="53"/>
-      <c r="B130" s="53"/>
+      <c r="A130" s="36"/>
+      <c r="B130" s="36"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="53"/>
-      <c r="B131" s="53"/>
+      <c r="A131" s="36"/>
+      <c r="B131" s="36"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="53"/>
-      <c r="B132" s="53"/>
+      <c r="A132" s="36"/>
+      <c r="B132" s="36"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="53"/>
-      <c r="B133" s="53"/>
+      <c r="A133" s="36"/>
+      <c r="B133" s="36"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="53"/>
-      <c r="B134" s="53"/>
+      <c r="A134" s="36"/>
+      <c r="B134" s="36"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="53"/>
-      <c r="B135" s="53"/>
+      <c r="A135" s="36"/>
+      <c r="B135" s="36"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="53"/>
-      <c r="B136" s="53"/>
+      <c r="A136" s="36"/>
+      <c r="B136" s="36"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="53"/>
-      <c r="B137" s="53"/>
+      <c r="A137" s="36"/>
+      <c r="B137" s="36"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="53"/>
-      <c r="B138" s="53"/>
+      <c r="A138" s="36"/>
+      <c r="B138" s="36"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="53"/>
-      <c r="B139" s="53"/>
+      <c r="A139" s="36"/>
+      <c r="B139" s="36"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="53"/>
-      <c r="B140" s="53"/>
+      <c r="A140" s="36"/>
+      <c r="B140" s="36"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="53"/>
-      <c r="B141" s="53"/>
+      <c r="A141" s="36"/>
+      <c r="B141" s="36"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="53"/>
-      <c r="B142" s="53"/>
+      <c r="A142" s="36"/>
+      <c r="B142" s="36"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="53"/>
-      <c r="B143" s="53"/>
+      <c r="A143" s="36"/>
+      <c r="B143" s="36"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="53"/>
-      <c r="B144" s="53"/>
+      <c r="A144" s="36"/>
+      <c r="B144" s="36"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="53"/>
-      <c r="B145" s="53"/>
+      <c r="A145" s="36"/>
+      <c r="B145" s="36"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="53"/>
-      <c r="B146" s="53"/>
+      <c r="A146" s="36"/>
+      <c r="B146" s="36"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="53"/>
-      <c r="B147" s="53"/>
+      <c r="A147" s="36"/>
+      <c r="B147" s="36"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="53"/>
-      <c r="B148" s="53"/>
+      <c r="A148" s="36"/>
+      <c r="B148" s="36"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="53"/>
-      <c r="B149" s="53"/>
+      <c r="A149" s="36"/>
+      <c r="B149" s="36"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="53"/>
-      <c r="B150" s="53"/>
+      <c r="A150" s="36"/>
+      <c r="B150" s="36"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="53"/>
-      <c r="B151" s="53"/>
+      <c r="A151" s="36"/>
+      <c r="B151" s="36"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="53"/>
-      <c r="B152" s="53"/>
+      <c r="A152" s="36"/>
+      <c r="B152" s="36"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="53"/>
-      <c r="B153" s="53"/>
+      <c r="A153" s="36"/>
+      <c r="B153" s="36"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="53"/>
-      <c r="B154" s="53"/>
+      <c r="A154" s="36"/>
+      <c r="B154" s="36"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="53"/>
-      <c r="B155" s="53"/>
+      <c r="A155" s="36"/>
+      <c r="B155" s="36"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="53"/>
-      <c r="B156" s="53"/>
+      <c r="A156" s="36"/>
+      <c r="B156" s="36"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="53"/>
-      <c r="B157" s="53"/>
+      <c r="A157" s="36"/>
+      <c r="B157" s="36"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="53"/>
-      <c r="B158" s="53"/>
+      <c r="A158" s="36"/>
+      <c r="B158" s="36"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="53"/>
-      <c r="B159" s="53"/>
+      <c r="A159" s="36"/>
+      <c r="B159" s="36"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="53"/>
-      <c r="B160" s="53"/>
+      <c r="A160" s="36"/>
+      <c r="B160" s="36"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="53"/>
-      <c r="B161" s="53"/>
+      <c r="A161" s="36"/>
+      <c r="B161" s="36"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="53"/>
-      <c r="B162" s="53"/>
+      <c r="A162" s="36"/>
+      <c r="B162" s="36"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="53"/>
-      <c r="B163" s="53"/>
+      <c r="A163" s="36"/>
+      <c r="B163" s="36"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="53"/>
-      <c r="B164" s="53"/>
+      <c r="A164" s="36"/>
+      <c r="B164" s="36"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="53"/>
-      <c r="B165" s="53"/>
+      <c r="A165" s="36"/>
+      <c r="B165" s="36"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="53"/>
-      <c r="B166" s="53"/>
+      <c r="A166" s="36"/>
+      <c r="B166" s="36"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="53"/>
-      <c r="B167" s="53"/>
+      <c r="A167" s="36"/>
+      <c r="B167" s="36"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="53"/>
-      <c r="B168" s="53"/>
+      <c r="A168" s="36"/>
+      <c r="B168" s="36"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="53"/>
-      <c r="B169" s="53"/>
+      <c r="A169" s="36"/>
+      <c r="B169" s="36"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="53"/>
-      <c r="B170" s="53"/>
+      <c r="A170" s="36"/>
+      <c r="B170" s="36"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="53"/>
-      <c r="B171" s="53"/>
+      <c r="A171" s="36"/>
+      <c r="B171" s="36"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="53"/>
-      <c r="B172" s="53"/>
+      <c r="A172" s="36"/>
+      <c r="B172" s="36"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="53"/>
-      <c r="B173" s="53"/>
+      <c r="A173" s="36"/>
+      <c r="B173" s="36"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="53"/>
-      <c r="B174" s="53"/>
+      <c r="A174" s="36"/>
+      <c r="B174" s="36"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="53"/>
-      <c r="B175" s="53"/>
+      <c r="A175" s="36"/>
+      <c r="B175" s="36"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="53"/>
-      <c r="B176" s="53"/>
+      <c r="A176" s="36"/>
+      <c r="B176" s="36"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="53"/>
-      <c r="B177" s="53"/>
+      <c r="A177" s="36"/>
+      <c r="B177" s="36"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="53"/>
-      <c r="B178" s="53"/>
+      <c r="A178" s="36"/>
+      <c r="B178" s="36"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="53"/>
-      <c r="B179" s="53"/>
+      <c r="A179" s="36"/>
+      <c r="B179" s="36"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="53"/>
-      <c r="B180" s="53"/>
+      <c r="A180" s="36"/>
+      <c r="B180" s="36"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="53"/>
-      <c r="B181" s="53"/>
+      <c r="A181" s="36"/>
+      <c r="B181" s="36"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="53"/>
-      <c r="B182" s="53"/>
+      <c r="A182" s="36"/>
+      <c r="B182" s="36"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="53"/>
-      <c r="B183" s="53"/>
+      <c r="A183" s="36"/>
+      <c r="B183" s="36"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="53"/>
-      <c r="B184" s="53"/>
+      <c r="A184" s="36"/>
+      <c r="B184" s="36"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="53"/>
-      <c r="B185" s="53"/>
+      <c r="A185" s="36"/>
+      <c r="B185" s="36"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="53"/>
-      <c r="B186" s="53"/>
+      <c r="A186" s="36"/>
+      <c r="B186" s="36"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="53"/>
-      <c r="B187" s="53"/>
+      <c r="A187" s="36"/>
+      <c r="B187" s="36"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="53"/>
-      <c r="B188" s="53"/>
+      <c r="A188" s="36"/>
+      <c r="B188" s="36"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="53"/>
-      <c r="B189" s="53"/>
+      <c r="A189" s="36"/>
+      <c r="B189" s="36"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="53"/>
-      <c r="B190" s="53"/>
+      <c r="A190" s="36"/>
+      <c r="B190" s="36"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="53"/>
-      <c r="B191" s="53"/>
+      <c r="A191" s="36"/>
+      <c r="B191" s="36"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="53"/>
-      <c r="B192" s="53"/>
+      <c r="A192" s="36"/>
+      <c r="B192" s="36"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="53"/>
-      <c r="B193" s="53"/>
+      <c r="A193" s="36"/>
+      <c r="B193" s="36"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="53"/>
-      <c r="B194" s="53"/>
+      <c r="A194" s="36"/>
+      <c r="B194" s="36"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="53"/>
-      <c r="B195" s="53"/>
+      <c r="A195" s="36"/>
+      <c r="B195" s="36"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="53"/>
-      <c r="B196" s="53"/>
+      <c r="A196" s="36"/>
+      <c r="B196" s="36"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="53"/>
-      <c r="B197" s="53"/>
+      <c r="A197" s="36"/>
+      <c r="B197" s="36"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="53"/>
-      <c r="B198" s="53"/>
+      <c r="A198" s="36"/>
+      <c r="B198" s="36"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="53"/>
-      <c r="B199" s="53"/>
+      <c r="A199" s="36"/>
+      <c r="B199" s="36"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="53"/>
-      <c r="B200" s="53"/>
+      <c r="A200" s="36"/>
+      <c r="B200" s="36"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="53"/>
-      <c r="B201" s="53"/>
+      <c r="A201" s="36"/>
+      <c r="B201" s="36"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="53"/>
-      <c r="B202" s="53"/>
+      <c r="A202" s="36"/>
+      <c r="B202" s="36"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="53"/>
-      <c r="B203" s="53"/>
+      <c r="A203" s="36"/>
+      <c r="B203" s="36"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="53"/>
-      <c r="B204" s="53"/>
+      <c r="A204" s="36"/>
+      <c r="B204" s="36"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="53"/>
-      <c r="B205" s="53"/>
+      <c r="A205" s="36"/>
+      <c r="B205" s="36"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="53"/>
-      <c r="B206" s="53"/>
+      <c r="A206" s="36"/>
+      <c r="B206" s="36"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="53"/>
-      <c r="B207" s="53"/>
+      <c r="A207" s="36"/>
+      <c r="B207" s="36"/>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="53"/>
-      <c r="B208" s="53"/>
+      <c r="A208" s="36"/>
+      <c r="B208" s="36"/>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="53"/>
-      <c r="B209" s="53"/>
+      <c r="A209" s="36"/>
+      <c r="B209" s="36"/>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="53"/>
-      <c r="B210" s="53"/>
+      <c r="A210" s="36"/>
+      <c r="B210" s="36"/>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="53"/>
-      <c r="B211" s="53"/>
+      <c r="A211" s="36"/>
+      <c r="B211" s="36"/>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="53"/>
-      <c r="B212" s="53"/>
+      <c r="A212" s="36"/>
+      <c r="B212" s="36"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="53"/>
-      <c r="B213" s="53"/>
+      <c r="A213" s="36"/>
+      <c r="B213" s="36"/>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="53"/>
-      <c r="B214" s="53"/>
+      <c r="A214" s="36"/>
+      <c r="B214" s="36"/>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="53"/>
-      <c r="B215" s="53"/>
+      <c r="A215" s="36"/>
+      <c r="B215" s="36"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="53"/>
-      <c r="B216" s="53"/>
+      <c r="A216" s="36"/>
+      <c r="B216" s="36"/>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="53"/>
-      <c r="B217" s="53"/>
+      <c r="A217" s="36"/>
+      <c r="B217" s="36"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="53"/>
-      <c r="B218" s="53"/>
+      <c r="A218" s="36"/>
+      <c r="B218" s="36"/>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="53"/>
-      <c r="B219" s="53"/>
+      <c r="A219" s="36"/>
+      <c r="B219" s="36"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="53"/>
-      <c r="B220" s="53"/>
+      <c r="A220" s="36"/>
+      <c r="B220" s="36"/>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="53"/>
-      <c r="B221" s="53"/>
+      <c r="A221" s="36"/>
+      <c r="B221" s="36"/>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="53"/>
-      <c r="B222" s="53"/>
+      <c r="A222" s="36"/>
+      <c r="B222" s="36"/>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="53"/>
-      <c r="B223" s="53"/>
+      <c r="A223" s="36"/>
+      <c r="B223" s="36"/>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="53"/>
-      <c r="B224" s="53"/>
+      <c r="A224" s="36"/>
+      <c r="B224" s="36"/>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="53"/>
-      <c r="B225" s="53"/>
+      <c r="A225" s="36"/>
+      <c r="B225" s="36"/>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="53"/>
-      <c r="B226" s="53"/>
+      <c r="A226" s="36"/>
+      <c r="B226" s="36"/>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="53"/>
-      <c r="B227" s="53"/>
+      <c r="A227" s="36"/>
+      <c r="B227" s="36"/>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="53"/>
-      <c r="B228" s="53"/>
+      <c r="A228" s="36"/>
+      <c r="B228" s="36"/>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="53"/>
-      <c r="B229" s="53"/>
+      <c r="A229" s="36"/>
+      <c r="B229" s="36"/>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="53"/>
-      <c r="B230" s="53"/>
+      <c r="A230" s="36"/>
+      <c r="B230" s="36"/>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="53"/>
-      <c r="B231" s="53"/>
+      <c r="A231" s="36"/>
+      <c r="B231" s="36"/>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="53"/>
-      <c r="B232" s="53"/>
+      <c r="A232" s="36"/>
+      <c r="B232" s="36"/>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="53"/>
-      <c r="B233" s="53"/>
+      <c r="A233" s="36"/>
+      <c r="B233" s="36"/>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="53"/>
-      <c r="B234" s="53"/>
+      <c r="A234" s="36"/>
+      <c r="B234" s="36"/>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="53"/>
-      <c r="B235" s="53"/>
+      <c r="A235" s="36"/>
+      <c r="B235" s="36"/>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="53"/>
-      <c r="B236" s="53"/>
+      <c r="A236" s="36"/>
+      <c r="B236" s="36"/>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="53"/>
-      <c r="B237" s="53"/>
+      <c r="A237" s="36"/>
+      <c r="B237" s="36"/>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="53"/>
-      <c r="B238" s="53"/>
+      <c r="A238" s="36"/>
+      <c r="B238" s="36"/>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="53"/>
-      <c r="B239" s="53"/>
+      <c r="A239" s="36"/>
+      <c r="B239" s="36"/>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="53"/>
-      <c r="B240" s="53"/>
+      <c r="A240" s="36"/>
+      <c r="B240" s="36"/>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="53"/>
-      <c r="B241" s="53"/>
+      <c r="A241" s="36"/>
+      <c r="B241" s="36"/>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="53"/>
-      <c r="B242" s="53"/>
+      <c r="A242" s="36"/>
+      <c r="B242" s="36"/>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="53"/>
-      <c r="B243" s="53"/>
+      <c r="A243" s="36"/>
+      <c r="B243" s="36"/>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="53"/>
-      <c r="B244" s="53"/>
+      <c r="A244" s="36"/>
+      <c r="B244" s="36"/>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="53"/>
-      <c r="B245" s="53"/>
+      <c r="A245" s="36"/>
+      <c r="B245" s="36"/>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="53"/>
-      <c r="B246" s="53"/>
+      <c r="A246" s="36"/>
+      <c r="B246" s="36"/>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="53"/>
-      <c r="B247" s="53"/>
+      <c r="A247" s="36"/>
+      <c r="B247" s="36"/>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="53"/>
-      <c r="B248" s="53"/>
+      <c r="A248" s="36"/>
+      <c r="B248" s="36"/>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="53"/>
-      <c r="B249" s="53"/>
+      <c r="A249" s="36"/>
+      <c r="B249" s="36"/>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="53"/>
-      <c r="B250" s="53"/>
+      <c r="A250" s="36"/>
+      <c r="B250" s="36"/>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="53"/>
-      <c r="B251" s="53"/>
+      <c r="A251" s="36"/>
+      <c r="B251" s="36"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="53"/>
-      <c r="B252" s="53"/>
+      <c r="A252" s="36"/>
+      <c r="B252" s="36"/>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="53"/>
-      <c r="B253" s="53"/>
+      <c r="A253" s="36"/>
+      <c r="B253" s="36"/>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="53"/>
-      <c r="B254" s="53"/>
+      <c r="A254" s="36"/>
+      <c r="B254" s="36"/>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="53"/>
-      <c r="B255" s="53"/>
+      <c r="A255" s="36"/>
+      <c r="B255" s="36"/>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="53"/>
-      <c r="B256" s="53"/>
+      <c r="A256" s="36"/>
+      <c r="B256" s="36"/>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="53"/>
-      <c r="B257" s="53"/>
+      <c r="A257" s="36"/>
+      <c r="B257" s="36"/>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="53"/>
-      <c r="B258" s="53"/>
+      <c r="A258" s="36"/>
+      <c r="B258" s="36"/>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="53"/>
-      <c r="B259" s="53"/>
+      <c r="A259" s="36"/>
+      <c r="B259" s="36"/>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="53"/>
-      <c r="B260" s="53"/>
+      <c r="A260" s="36"/>
+      <c r="B260" s="36"/>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="53"/>
-      <c r="B261" s="53"/>
+      <c r="A261" s="36"/>
+      <c r="B261" s="36"/>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="53"/>
-      <c r="B262" s="53"/>
+      <c r="A262" s="36"/>
+      <c r="B262" s="36"/>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="53"/>
-      <c r="B263" s="53"/>
+      <c r="A263" s="36"/>
+      <c r="B263" s="36"/>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="53"/>
-      <c r="B264" s="53"/>
+      <c r="A264" s="36"/>
+      <c r="B264" s="36"/>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="53"/>
-      <c r="B265" s="53"/>
+      <c r="A265" s="36"/>
+      <c r="B265" s="36"/>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="53"/>
-      <c r="B266" s="53"/>
+      <c r="A266" s="36"/>
+      <c r="B266" s="36"/>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="53"/>
-      <c r="B267" s="53"/>
+      <c r="A267" s="36"/>
+      <c r="B267" s="36"/>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="53"/>
-      <c r="B268" s="53"/>
+      <c r="A268" s="36"/>
+      <c r="B268" s="36"/>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="53"/>
-      <c r="B269" s="53"/>
+      <c r="A269" s="36"/>
+      <c r="B269" s="36"/>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="53"/>
-      <c r="B270" s="53"/>
+      <c r="A270" s="36"/>
+      <c r="B270" s="36"/>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="53"/>
-      <c r="B271" s="53"/>
+      <c r="A271" s="36"/>
+      <c r="B271" s="36"/>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="53"/>
-      <c r="B272" s="53"/>
+      <c r="A272" s="36"/>
+      <c r="B272" s="36"/>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="53"/>
-      <c r="B273" s="53"/>
+      <c r="A273" s="36"/>
+      <c r="B273" s="36"/>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="53"/>
-      <c r="B274" s="53"/>
+      <c r="A274" s="36"/>
+      <c r="B274" s="36"/>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="53"/>
-      <c r="B275" s="53"/>
+      <c r="A275" s="36"/>
+      <c r="B275" s="36"/>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="53"/>
-      <c r="B276" s="53"/>
+      <c r="A276" s="36"/>
+      <c r="B276" s="36"/>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="53"/>
-      <c r="B277" s="53"/>
+      <c r="A277" s="36"/>
+      <c r="B277" s="36"/>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="53"/>
-      <c r="B278" s="53"/>
+      <c r="A278" s="36"/>
+      <c r="B278" s="36"/>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="53"/>
-      <c r="B279" s="53"/>
+      <c r="A279" s="36"/>
+      <c r="B279" s="36"/>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="53"/>
-      <c r="B280" s="53"/>
+      <c r="A280" s="36"/>
+      <c r="B280" s="36"/>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="53"/>
-      <c r="B281" s="53"/>
+      <c r="A281" s="36"/>
+      <c r="B281" s="36"/>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="53"/>
-      <c r="B282" s="53"/>
+      <c r="A282" s="36"/>
+      <c r="B282" s="36"/>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="53"/>
-      <c r="B283" s="53"/>
+      <c r="A283" s="36"/>
+      <c r="B283" s="36"/>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="53"/>
-      <c r="B284" s="53"/>
+      <c r="A284" s="36"/>
+      <c r="B284" s="36"/>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="53"/>
-      <c r="B285" s="53"/>
+      <c r="A285" s="36"/>
+      <c r="B285" s="36"/>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="53"/>
-      <c r="B286" s="53"/>
+      <c r="A286" s="36"/>
+      <c r="B286" s="36"/>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="53"/>
-      <c r="B287" s="53"/>
+      <c r="A287" s="36"/>
+      <c r="B287" s="36"/>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="53"/>
-      <c r="B288" s="53"/>
+      <c r="A288" s="36"/>
+      <c r="B288" s="36"/>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="53"/>
-      <c r="B289" s="53"/>
+      <c r="A289" s="36"/>
+      <c r="B289" s="36"/>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="53"/>
-      <c r="B290" s="53"/>
+      <c r="A290" s="36"/>
+      <c r="B290" s="36"/>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="53"/>
-      <c r="B291" s="53"/>
+      <c r="A291" s="36"/>
+      <c r="B291" s="36"/>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="53"/>
-      <c r="B292" s="53"/>
+      <c r="A292" s="36"/>
+      <c r="B292" s="36"/>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="53"/>
-      <c r="B293" s="53"/>
+      <c r="A293" s="36"/>
+      <c r="B293" s="36"/>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="53"/>
-      <c r="B294" s="53"/>
+      <c r="A294" s="36"/>
+      <c r="B294" s="36"/>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="53"/>
-      <c r="B295" s="53"/>
+      <c r="A295" s="36"/>
+      <c r="B295" s="36"/>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="53"/>
-      <c r="B296" s="53"/>
+      <c r="A296" s="36"/>
+      <c r="B296" s="36"/>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="53"/>
-      <c r="B297" s="53"/>
+      <c r="A297" s="36"/>
+      <c r="B297" s="36"/>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="53"/>
-      <c r="B298" s="53"/>
+      <c r="A298" s="36"/>
+      <c r="B298" s="36"/>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="53"/>
-      <c r="B299" s="53"/>
+      <c r="A299" s="36"/>
+      <c r="B299" s="36"/>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="53"/>
-      <c r="B300" s="53"/>
+      <c r="A300" s="36"/>
+      <c r="B300" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="egT3ttZnO3hLVCpmQdcInkpfaJl+4GR1eKgNanFooo0FK4U5zcUhflPHbkKPSsBX3R22dIe4wgRzmL4hOUdkZg==" saltValue="sTqP96cvvF0rFgPmeDP5Vg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3Xl2Ik1gmKOanPC1JWgEBFFh/g5sGGE2L5uXVIfnhecqluJ0exVniFb7S/HQ5g/79t4mO6GkjZSigLvFXcxJGw==" saltValue="vAn+B0TqMlwUek6O1ZXJxA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="2">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C1:F1" location="'Пример АДРЕСНАЯ ИНФОРМАЦИЯ'!A1" display="Просмотреть пример" xr:uid="{70E52A33-D019-42A3-AA78-5CC069BE8C5D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="54" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="54" customWidth="1"/>
-    <col min="3" max="3" width="28" style="54" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="37" customWidth="1"/>
+    <col min="3" max="3" width="28" style="37" customWidth="1"/>
+    <col min="4" max="4" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="C1" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="52" t="s">
-        <v>61</v>
-      </c>
+      <c r="D1" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="62"/>
+      <c r="D2" s="65"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5wnfKziq7GGrVQzs5nw1TiHIUSbfdVygUWi59Okk1QV2NUzo4l0L9IumK6Z/ZWePFFFIbch4kCkzcWcS/Ci7Gg==" saltValue="J+mywQ/h8R1MUhWHm7oGtA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="geU6qXBGhbpKCu4aPeT1zO5/rk8moABelUnTZE4AOs5Z9vEToilQ0DTTi/YswtfrTY2Z4pqfsNSbhM2eXtuNUA==" saltValue="XChPwZ0KMxQPMKGvQgwHsg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <hyperlinks>
+    <hyperlink ref="D1" location="'Пример РАБОТНИКИ ВЫХОДЯЩИЕ НА Р'!A1" display="Просмотреть пример" xr:uid="{5AE45F03-4B2F-402B-94CD-D409D20DFC72}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Лист3"/>
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D1100A-C722-4803-AF08-2F7D2DAE2A2D}">
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="62.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="152.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="152.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="76"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C2" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="55">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="38">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="31" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="55">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="38">
         <v>2</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="31" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="55">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="38">
         <v>3</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C5" s="66"/>
+      <c r="D5" s="31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="175.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55">
+    <row r="6" spans="1:4" ht="175.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38">
         <v>4</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C6" s="66"/>
+      <c r="D6" s="31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55">
+    <row r="7" spans="1:4" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38">
         <v>5</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B7" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C7" s="66"/>
+      <c r="D7" s="31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="205.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55">
+    <row r="8" spans="1:4" ht="205.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38">
         <v>6</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C8" s="66"/>
+      <c r="D8" s="31" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="219" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="55">
+    <row r="9" spans="1:4" ht="219" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="38">
         <v>7</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B9" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C9" s="66"/>
+      <c r="D9" s="31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="55">
+    <row r="10" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38">
         <v>8</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B10" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C10" s="66"/>
+      <c r="D10" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="55">
+    <row r="11" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="38">
         <v>9</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B11" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C11" s="66"/>
+      <c r="D11" s="31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55">
+    <row r="12" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38">
         <v>10</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B12" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C12" s="66"/>
+      <c r="D12" s="31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="55">
+    <row r="13" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38">
         <v>11</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B13" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C13" s="66"/>
+      <c r="D13" s="31" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55">
+    <row r="14" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38">
         <v>12</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B14" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C14" s="66"/>
+      <c r="D14" s="31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="55">
+    <row r="15" spans="1:4" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38">
         <v>13</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B15" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C15" s="66"/>
+      <c r="D15" s="31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="55">
+    <row r="16" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38">
         <v>14</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B16" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C16" s="66"/>
+      <c r="D16" s="31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="55">
+    <row r="17" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="33">
         <v>15</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B17" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C17" s="67"/>
+      <c r="D17" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" ht="28.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:4" s="3" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="33">
+        <v>16</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="67"/>
+      <c r="D18" s="33" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="n0Ku64qbCo1YwSxzquZL3Aagd33IpiTb7ANmQS0Jo/jnrHwVWE3yBpCU9KEv1aAJONwwaelSpA3CnFUa1tGfJQ==" saltValue="3A/+m8wKsvGgTxqpuaGfig==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="h2bPIfeeSWi4FIqsovyPQca9epcrkkYTcbnwwGUiQn6FCg29M/BfJ9xXuo+rKQYjo+6iAf0L76Jq64fBSu1FyA==" saltValue="9MXVZdyUkMLCWfg7p9RAwg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C1:D1" location="'Пример Курирующее министерство'!A1" display="Просмотреть пример" xr:uid="{66884E54-828B-4067-B7E8-FE0FAB262ADF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3261,7 +3542,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3276,13 +3557,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="82"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -3300,7 +3583,7 @@
         <v>40</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3315,30 +3598,26 @@
         <v>2</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="15">
-        <v>7</v>
-      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="13"/>
@@ -3349,7 +3628,7 @@
         <v>39</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="13"/>
@@ -3357,10 +3636,10 @@
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="18"/>
@@ -3368,22 +3647,22 @@
     </row>
     <row r="9" spans="1:9" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="33"/>
+      <c r="A10" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="78"/>
     </row>
     <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="15">
         <v>4</v>
@@ -3391,7 +3670,7 @@
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="15">
         <v>2</v>
@@ -3399,17 +3678,18 @@
     </row>
     <row r="14" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="24">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="i/GZAiBV7CLtWzRq9GnlkpYt0tlrXmNPVWon1+Heqq09EDyODniKcVSiwP9CJ1ZR/AtteJp1QzwX/H6x2o1OMQ==" saltValue="LuzQ3ekDnvE3jnr3g5lKwg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Miu2p142lh+agoryCwevXHhOhUWDgtSoU9uE8zi3uEhz5sxPcgA3PHry2pMLKl2iFVQZuzdj45rl02DAwkB5GQ==" saltValue="MW2gI7q0B+UFspI4H883Jw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="3">
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B7">
     <cfRule type="containsBlanks" dxfId="0" priority="2">
@@ -3418,6 +3698,7 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="D1:E1" location="'ДАННЫЕ О ВАШЕЙ ОРГАНИЗАЦИИ'!A1" display="Назад к заполнению" xr:uid="{E1F696B4-615B-4F52-8775-068775C73B5C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -3428,7 +3709,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3436,96 +3717,335 @@
   <cols>
     <col min="1" max="1" width="46.7109375" customWidth="1"/>
     <col min="2" max="2" width="120.140625" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="51" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C1" s="58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ETICVG8Z3p5xcUvJgzVHEcIpjTRF73nEbmHrXNIwXWCmUcvdnxbXHwp/HIhcIeS1A5IGs9nl0EVd0iXTRe/xMQ==" saltValue="PzDum4cI/U7GaD3nvnWOLQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LnX9M5yxriaTVQim5SAi3WyXhXpQ9K/qOt07PnzzQH8z7LoyM0EszMHYLFLDkk5KuddSJv5Fv4qGALVO8N7/Gg==" saltValue="qVwDAvUgmk4CMeqcHxR/Hw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <hyperlinks>
+    <hyperlink ref="C1" location="'АДРЕСНАЯ ИНФОРМАЦИЯ'!A1" display="Вернуться к заполнению" xr:uid="{297484AD-B70F-4B56-B453-0CC7A5A5D04F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Лист3"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" style="58" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="58" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="58" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="62.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="152.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="38">
+        <v>1</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="38">
+        <v>2</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="38">
+        <v>3</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="175.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38">
+        <v>4</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38">
+        <v>5</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="205.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38">
+        <v>6</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="219" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="38">
+        <v>7</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38">
+        <v>8</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="38">
+        <v>9</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38">
+        <v>10</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38">
+        <v>11</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38">
+        <v>12</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38">
+        <v>13</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38">
+        <v>14</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="38">
+        <v>15</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="tkOr+NASy5RyKWqbD/Sitwtlx56hD4cvD/CmA+0Ry5KCU/E1gjdhIGqe2sMXAJsmrT2jyD9Gyg6wME3rBxfoUw==" saltValue="p/H5Zca0PzgnMLuPS/AuqA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <hyperlinks>
+    <hyperlink ref="C1" location="'КУРИРУЮЩЕЕ МИНИСТЕРСТВО'!A1" display="Назад к заполнению" xr:uid="{A0FD94FB-30DF-42AD-958D-AC9A2101EB95}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.28515625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="41" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="41" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="C1" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="D1" s="60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="B2" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="C2" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="58" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="B3" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="C3" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="58" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="B4" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="58" t="s">
-        <v>69</v>
-      </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="v8Pd2Rn6EXvKRbCjVzMQMISJhhJwP72q3HHgcDeuCou8ehfE9Gqry6XVROYy8QBADFvXwaMJEtlmNQssRQINgQ==" saltValue="p1e8M9hHV0LuhmLFziak9w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GZ2Ec/CkDA4FEzEhF9PzvByO3IfqaNYf8gK4wcMhiXMc5XKUD4YxsPoOhzR+llp0F49/d/LE/8idHurxM6u+ug==" saltValue="Wyscc8WC0+vXYvIsRDnk3A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <hyperlinks>
+    <hyperlink ref="D1" location="'РАБОТНИКИ ВЫХОДЯЩИЕ НА РАБОТУ'!A1" display="Вернуть к заполнению" xr:uid="{4D336B95-10A0-47E9-8FEE-0EAD345CEF80}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/template.xlsx
+++ b/src/main/resources/template.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ЕИС Работающая Бурятия\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaProjects\addcovid\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276D64D3-E003-47AF-B4E4-ABC118D88059}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="X63vqxGaR0w3itOZCFSudR4Bv4X4jNKmFGHlbFTqctsd/u8oR4S3M35A+12MYHgTdmTrEWGpbu8lqphyfAAk9w==" workbookSaltValue="kUk0Az6feS+owcQsOXQmqw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ДАННЫЕ О ВАШЕЙ ОРГАНИЗАЦИИ" sheetId="1" r:id="rId1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="96">
   <si>
     <t>ООО Ромашка</t>
   </si>
@@ -774,11 +773,23 @@
       <t>ОГРН  (13 или 15 цифр)</t>
     </r>
   </si>
+  <si>
+    <t>Организации, осуществляющие деятельность в сфере противопожарной безопасности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Управление МЧС по РБ </t>
+  </si>
+  <si>
+    <t>Частные охранные предприятия</t>
+  </si>
+  <si>
+    <t>Росгвардия</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1283,7 +1294,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1490,6 +1501,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1818,23 +1835,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.5703125" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="46.140625" customWidth="1"/>
-    <col min="5" max="5" width="57.5703125" customWidth="1"/>
+    <col min="1" max="1" width="48.5546875" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="4" max="4" width="46.109375" customWidth="1"/>
+    <col min="5" max="5" width="57.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="68" t="s">
         <v>1</v>
       </c>
@@ -1845,7 +1862,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>69</v>
       </c>
@@ -1856,7 +1873,7 @@
       </c>
       <c r="E2" s="47"/>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>70</v>
       </c>
@@ -1867,7 +1884,7 @@
       </c>
       <c r="E3" s="48"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>71</v>
       </c>
@@ -1876,7 +1893,7 @@
       <c r="D4" s="30"/>
       <c r="E4" s="27"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>91</v>
       </c>
@@ -1885,7 +1902,7 @@
       <c r="D5" s="26"/>
       <c r="E5" s="27"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>72</v>
       </c>
@@ -1894,7 +1911,7 @@
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
         <v>73</v>
       </c>
@@ -1903,21 +1920,21 @@
       <c r="D7" s="29"/>
       <c r="E7" s="49"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="68" t="s">
         <v>54</v>
       </c>
@@ -1926,7 +1943,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="50" t="s">
         <v>75</v>
       </c>
@@ -1935,7 +1952,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="52" t="s">
         <v>76</v>
       </c>
@@ -1944,7 +1961,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="52" t="s">
         <v>77</v>
       </c>
@@ -1953,7 +1970,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="54" t="s">
         <v>78</v>
       </c>
@@ -1961,7 +1978,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="57" t="s">
         <v>82</v>
       </c>
@@ -1998,28 +2015,28 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E1" location="'Пример ДАННЫЕ О ВАШЕЙ ОРГАНИЗА '!A1" display="Посмотреть пример заполнения" xr:uid="{733EFB04-6A1F-40FD-A829-F52994521F1F}"/>
+    <hyperlink ref="E1" location="'Пример ДАННЫЕ О ВАШЕЙ ОРГАНИЗА '!A1" display="Посмотреть пример заполнения"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F300"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" style="3" customWidth="1"/>
-    <col min="3" max="5" width="8.85546875" style="3"/>
-    <col min="6" max="6" width="19.5703125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="46.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="8.88671875" style="3"/>
+    <col min="6" max="6" width="19.5546875" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>55</v>
       </c>
@@ -2033,7 +2050,7 @@
       <c r="E1" s="72"/>
       <c r="F1" s="72"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
       <c r="C2" s="73"/>
@@ -2041,1195 +2058,1195 @@
       <c r="E2" s="74"/>
       <c r="F2" s="74"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="36"/>
       <c r="B3" s="36"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="36"/>
       <c r="B5" s="36"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="36"/>
       <c r="B7" s="36"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="36"/>
       <c r="B9" s="36"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="36"/>
       <c r="B51" s="36"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="36"/>
       <c r="B53" s="36"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="36"/>
       <c r="B54" s="36"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="36"/>
       <c r="B55" s="36"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="36"/>
       <c r="B56" s="36"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="36"/>
       <c r="B57" s="36"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="36"/>
       <c r="B58" s="36"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="36"/>
       <c r="B59" s="36"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="36"/>
       <c r="B60" s="36"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="36"/>
       <c r="B61" s="36"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="36"/>
       <c r="B62" s="36"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="36"/>
       <c r="B63" s="36"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="36"/>
       <c r="B64" s="36"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="36"/>
       <c r="B65" s="36"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="36"/>
       <c r="B66" s="36"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="36"/>
       <c r="B67" s="36"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="36"/>
       <c r="B68" s="36"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="36"/>
       <c r="B69" s="36"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="36"/>
       <c r="B70" s="36"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="36"/>
       <c r="B71" s="36"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="36"/>
       <c r="B72" s="36"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="36"/>
       <c r="B73" s="36"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="36"/>
       <c r="B74" s="36"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="36"/>
       <c r="B75" s="36"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="36"/>
       <c r="B76" s="36"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="36"/>
       <c r="B77" s="36"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="36"/>
       <c r="B78" s="36"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="36"/>
       <c r="B79" s="36"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="36"/>
       <c r="B80" s="36"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="36"/>
       <c r="B81" s="36"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="36"/>
       <c r="B82" s="36"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="36"/>
       <c r="B83" s="36"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="36"/>
       <c r="B84" s="36"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="36"/>
       <c r="B85" s="36"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="36"/>
       <c r="B86" s="36"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="36"/>
       <c r="B87" s="36"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="36"/>
       <c r="B88" s="36"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="36"/>
       <c r="B89" s="36"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="36"/>
       <c r="B90" s="36"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="36"/>
       <c r="B91" s="36"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="36"/>
       <c r="B92" s="36"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="36"/>
       <c r="B93" s="36"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="36"/>
       <c r="B94" s="36"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="36"/>
       <c r="B95" s="36"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="36"/>
       <c r="B96" s="36"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="36"/>
       <c r="B97" s="36"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="36"/>
       <c r="B98" s="36"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="36"/>
       <c r="B99" s="36"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="36"/>
       <c r="B100" s="36"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="36"/>
       <c r="B101" s="36"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="36"/>
       <c r="B102" s="36"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="36"/>
       <c r="B103" s="36"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="36"/>
       <c r="B104" s="36"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="36"/>
       <c r="B105" s="36"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="36"/>
       <c r="B106" s="36"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="36"/>
       <c r="B107" s="36"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="36"/>
       <c r="B108" s="36"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="36"/>
       <c r="B109" s="36"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="36"/>
       <c r="B110" s="36"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="36"/>
       <c r="B111" s="36"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="36"/>
       <c r="B112" s="36"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="36"/>
       <c r="B113" s="36"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="36"/>
       <c r="B114" s="36"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="36"/>
       <c r="B115" s="36"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="36"/>
       <c r="B116" s="36"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="36"/>
       <c r="B117" s="36"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="36"/>
       <c r="B118" s="36"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="36"/>
       <c r="B119" s="36"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="36"/>
       <c r="B120" s="36"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="36"/>
       <c r="B121" s="36"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="36"/>
       <c r="B122" s="36"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="36"/>
       <c r="B123" s="36"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="36"/>
       <c r="B124" s="36"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="36"/>
       <c r="B125" s="36"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="36"/>
       <c r="B126" s="36"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="36"/>
       <c r="B127" s="36"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="36"/>
       <c r="B128" s="36"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="36"/>
       <c r="B129" s="36"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="36"/>
       <c r="B130" s="36"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="36"/>
       <c r="B131" s="36"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="36"/>
       <c r="B132" s="36"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="36"/>
       <c r="B133" s="36"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="36"/>
       <c r="B134" s="36"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="36"/>
       <c r="B135" s="36"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="36"/>
       <c r="B136" s="36"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="36"/>
       <c r="B137" s="36"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="36"/>
       <c r="B138" s="36"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="36"/>
       <c r="B139" s="36"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="36"/>
       <c r="B140" s="36"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="36"/>
       <c r="B141" s="36"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="36"/>
       <c r="B142" s="36"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="36"/>
       <c r="B143" s="36"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="36"/>
       <c r="B144" s="36"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="36"/>
       <c r="B145" s="36"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="36"/>
       <c r="B146" s="36"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="36"/>
       <c r="B147" s="36"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="36"/>
       <c r="B148" s="36"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="36"/>
       <c r="B149" s="36"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="36"/>
       <c r="B150" s="36"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="36"/>
       <c r="B151" s="36"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="36"/>
       <c r="B152" s="36"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="36"/>
       <c r="B153" s="36"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="36"/>
       <c r="B154" s="36"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="36"/>
       <c r="B155" s="36"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="36"/>
       <c r="B156" s="36"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="36"/>
       <c r="B157" s="36"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="36"/>
       <c r="B158" s="36"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="36"/>
       <c r="B159" s="36"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="36"/>
       <c r="B160" s="36"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="36"/>
       <c r="B161" s="36"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="36"/>
       <c r="B162" s="36"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="36"/>
       <c r="B163" s="36"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="36"/>
       <c r="B164" s="36"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="36"/>
       <c r="B165" s="36"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="36"/>
       <c r="B166" s="36"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="36"/>
       <c r="B167" s="36"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="36"/>
       <c r="B168" s="36"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="36"/>
       <c r="B169" s="36"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="36"/>
       <c r="B170" s="36"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="36"/>
       <c r="B171" s="36"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="36"/>
       <c r="B172" s="36"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="36"/>
       <c r="B173" s="36"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="36"/>
       <c r="B174" s="36"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="36"/>
       <c r="B175" s="36"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="36"/>
       <c r="B176" s="36"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="36"/>
       <c r="B177" s="36"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="36"/>
       <c r="B178" s="36"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="36"/>
       <c r="B179" s="36"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="36"/>
       <c r="B180" s="36"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="36"/>
       <c r="B181" s="36"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="36"/>
       <c r="B182" s="36"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="36"/>
       <c r="B183" s="36"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="36"/>
       <c r="B184" s="36"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="36"/>
       <c r="B185" s="36"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="36"/>
       <c r="B186" s="36"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="36"/>
       <c r="B187" s="36"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="36"/>
       <c r="B188" s="36"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="36"/>
       <c r="B189" s="36"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="36"/>
       <c r="B190" s="36"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="36"/>
       <c r="B191" s="36"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="36"/>
       <c r="B192" s="36"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="36"/>
       <c r="B193" s="36"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="36"/>
       <c r="B194" s="36"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="36"/>
       <c r="B195" s="36"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="36"/>
       <c r="B196" s="36"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="36"/>
       <c r="B197" s="36"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="36"/>
       <c r="B198" s="36"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="36"/>
       <c r="B199" s="36"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="36"/>
       <c r="B200" s="36"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="36"/>
       <c r="B201" s="36"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="36"/>
       <c r="B202" s="36"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="36"/>
       <c r="B203" s="36"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="36"/>
       <c r="B204" s="36"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="36"/>
       <c r="B205" s="36"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="36"/>
       <c r="B206" s="36"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="36"/>
       <c r="B207" s="36"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="36"/>
       <c r="B208" s="36"/>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="36"/>
       <c r="B209" s="36"/>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="36"/>
       <c r="B210" s="36"/>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="36"/>
       <c r="B211" s="36"/>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="36"/>
       <c r="B212" s="36"/>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="36"/>
       <c r="B213" s="36"/>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="36"/>
       <c r="B214" s="36"/>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="36"/>
       <c r="B215" s="36"/>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="36"/>
       <c r="B216" s="36"/>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="36"/>
       <c r="B217" s="36"/>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="36"/>
       <c r="B218" s="36"/>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="36"/>
       <c r="B219" s="36"/>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="36"/>
       <c r="B220" s="36"/>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="36"/>
       <c r="B221" s="36"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="36"/>
       <c r="B222" s="36"/>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="36"/>
       <c r="B223" s="36"/>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="36"/>
       <c r="B224" s="36"/>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="36"/>
       <c r="B225" s="36"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="36"/>
       <c r="B226" s="36"/>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="36"/>
       <c r="B227" s="36"/>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="36"/>
       <c r="B228" s="36"/>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="36"/>
       <c r="B229" s="36"/>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="36"/>
       <c r="B230" s="36"/>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="36"/>
       <c r="B231" s="36"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="36"/>
       <c r="B232" s="36"/>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="36"/>
       <c r="B233" s="36"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="36"/>
       <c r="B234" s="36"/>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="36"/>
       <c r="B235" s="36"/>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="36"/>
       <c r="B236" s="36"/>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="36"/>
       <c r="B237" s="36"/>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="36"/>
       <c r="B238" s="36"/>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="36"/>
       <c r="B239" s="36"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="36"/>
       <c r="B240" s="36"/>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="36"/>
       <c r="B241" s="36"/>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="36"/>
       <c r="B242" s="36"/>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="36"/>
       <c r="B243" s="36"/>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="36"/>
       <c r="B244" s="36"/>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="36"/>
       <c r="B245" s="36"/>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="36"/>
       <c r="B246" s="36"/>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="36"/>
       <c r="B247" s="36"/>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="36"/>
       <c r="B248" s="36"/>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="36"/>
       <c r="B249" s="36"/>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="36"/>
       <c r="B250" s="36"/>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="36"/>
       <c r="B251" s="36"/>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="36"/>
       <c r="B252" s="36"/>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="36"/>
       <c r="B253" s="36"/>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="36"/>
       <c r="B254" s="36"/>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="36"/>
       <c r="B255" s="36"/>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="36"/>
       <c r="B256" s="36"/>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="36"/>
       <c r="B257" s="36"/>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="36"/>
       <c r="B258" s="36"/>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="36"/>
       <c r="B259" s="36"/>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="36"/>
       <c r="B260" s="36"/>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="36"/>
       <c r="B261" s="36"/>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="36"/>
       <c r="B262" s="36"/>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="36"/>
       <c r="B263" s="36"/>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="36"/>
       <c r="B264" s="36"/>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="36"/>
       <c r="B265" s="36"/>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="36"/>
       <c r="B266" s="36"/>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="36"/>
       <c r="B267" s="36"/>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="36"/>
       <c r="B268" s="36"/>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="36"/>
       <c r="B269" s="36"/>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="36"/>
       <c r="B270" s="36"/>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="36"/>
       <c r="B271" s="36"/>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="36"/>
       <c r="B272" s="36"/>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="36"/>
       <c r="B273" s="36"/>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="36"/>
       <c r="B274" s="36"/>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="36"/>
       <c r="B275" s="36"/>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="36"/>
       <c r="B276" s="36"/>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="36"/>
       <c r="B277" s="36"/>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="36"/>
       <c r="B278" s="36"/>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="36"/>
       <c r="B279" s="36"/>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="36"/>
       <c r="B280" s="36"/>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="36"/>
       <c r="B281" s="36"/>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="36"/>
       <c r="B282" s="36"/>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="36"/>
       <c r="B283" s="36"/>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="36"/>
       <c r="B284" s="36"/>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="36"/>
       <c r="B285" s="36"/>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="36"/>
       <c r="B286" s="36"/>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="36"/>
       <c r="B287" s="36"/>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="36"/>
       <c r="B288" s="36"/>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="36"/>
       <c r="B289" s="36"/>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="36"/>
       <c r="B290" s="36"/>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="36"/>
       <c r="B291" s="36"/>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="36"/>
       <c r="B292" s="36"/>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="36"/>
       <c r="B293" s="36"/>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="36"/>
       <c r="B294" s="36"/>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="36"/>
       <c r="B295" s="36"/>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="36"/>
       <c r="B296" s="36"/>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="36"/>
       <c r="B297" s="36"/>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="36"/>
       <c r="B298" s="36"/>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" s="36"/>
       <c r="B299" s="36"/>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="36"/>
       <c r="B300" s="36"/>
     </row>
@@ -3240,29 +3257,29 @@
     <mergeCell ref="C2:F2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1:F1" location="'Пример АДРЕСНАЯ ИНФОРМАЦИЯ'!A1" display="Просмотреть пример" xr:uid="{70E52A33-D019-42A3-AA78-5CC069BE8C5D}"/>
+    <hyperlink ref="C1:F1" location="'Пример АДРЕСНАЯ ИНФОРМАЦИЯ'!A1" display="Просмотреть пример"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="37" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="37" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" style="37" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="37" customWidth="1"/>
     <col min="3" max="3" width="28" style="37" customWidth="1"/>
-    <col min="4" max="4" width="47.140625" customWidth="1"/>
+    <col min="4" max="4" width="47.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>58</v>
       </c>
@@ -3278,36 +3295,36 @@
       <c r="E1" s="64"/>
       <c r="F1" s="64"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="62"/>
       <c r="D2" s="65"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="geU6qXBGhbpKCu4aPeT1zO5/rk8moABelUnTZE4AOs5Z9vEToilQ0DTTi/YswtfrTY2Z4pqfsNSbhM2eXtuNUA==" saltValue="XChPwZ0KMxQPMKGvQgwHsg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
-    <hyperlink ref="D1" location="'Пример РАБОТНИКИ ВЫХОДЯЩИЕ НА Р'!A1" display="Просмотреть пример" xr:uid="{5AE45F03-4B2F-402B-94CD-D409D20DFC72}"/>
+    <hyperlink ref="D1" location="'Пример РАБОТНИКИ ВЫХОДЯЩИЕ НА Р'!A1" display="Просмотреть пример"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D1100A-C722-4803-AF08-2F7D2DAE2A2D}">
-  <dimension ref="A1:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="152.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="152.5546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="75" t="s">
         <v>90</v>
       </c>
@@ -3317,7 +3334,7 @@
       </c>
       <c r="D1" s="76"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>3</v>
       </c>
@@ -3331,7 +3348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="38">
         <v>1</v>
       </c>
@@ -3343,7 +3360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="38">
         <v>2</v>
       </c>
@@ -3355,7 +3372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="38">
         <v>3</v>
       </c>
@@ -3367,7 +3384,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="175.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="175.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="38">
         <v>4</v>
       </c>
@@ -3379,7 +3396,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38">
         <v>5</v>
       </c>
@@ -3391,7 +3408,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="205.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="205.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="38">
         <v>6</v>
       </c>
@@ -3403,7 +3420,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="219" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="219" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="38">
         <v>7</v>
       </c>
@@ -3415,7 +3432,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="38">
         <v>8</v>
       </c>
@@ -3427,7 +3444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="38">
         <v>9</v>
       </c>
@@ -3439,7 +3456,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="38">
         <v>10</v>
       </c>
@@ -3451,7 +3468,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38">
         <v>11</v>
       </c>
@@ -3463,7 +3480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="38">
         <v>12</v>
       </c>
@@ -3475,7 +3492,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
         <v>13</v>
       </c>
@@ -3487,7 +3504,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="38">
         <v>14</v>
       </c>
@@ -3499,8 +3516,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33">
+    <row r="17" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="38">
         <v>15</v>
       </c>
       <c r="B17" s="33" t="s">
@@ -3511,8 +3528,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="3" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
+    <row r="18" spans="1:4" s="3" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="38">
         <v>16</v>
       </c>
       <c r="B18" s="33" t="s">
@@ -3523,21 +3540,45 @@
         <v>88</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="84">
+        <v>17</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="83"/>
+      <c r="D19" s="31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="84">
+        <v>18</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="83"/>
+      <c r="D20" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="h2bPIfeeSWi4FIqsovyPQca9epcrkkYTcbnwwGUiQn6FCg29M/BfJ9xXuo+rKQYjo+6iAf0L76Jq64fBSu1FyA==" saltValue="9MXVZdyUkMLCWfg7p9RAwg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1:D1" location="'Пример Курирующее министерство'!A1" display="Просмотреть пример" xr:uid="{66884E54-828B-4067-B7E8-FE0FAB262ADF}"/>
+    <hyperlink ref="C1:D1" location="'Пример Курирующее министерство'!A1" display="Просмотреть пример"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:I14"/>
   <sheetViews>
@@ -3545,18 +3586,18 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="73.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="2"/>
-    <col min="4" max="4" width="57.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="51.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="73.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="57.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="51.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="29" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="2"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="79" t="s">
         <v>1</v>
       </c>
@@ -3571,7 +3612,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>36</v>
       </c>
@@ -3586,7 +3627,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>37</v>
       </c>
@@ -3601,7 +3642,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>38</v>
       </c>
@@ -3612,7 +3653,7 @@
       <c r="D4" s="16"/>
       <c r="E4" s="15"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>41</v>
       </c>
@@ -3623,7 +3664,7 @@
       <c r="D5" s="13"/>
       <c r="E5" s="17"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>39</v>
       </c>
@@ -3634,7 +3675,7 @@
       <c r="D6" s="13"/>
       <c r="E6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>43</v>
       </c>
@@ -3645,14 +3686,14 @@
       <c r="D7" s="18"/>
       <c r="E7" s="19"/>
     </row>
-    <row r="9" spans="1:9" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="77" t="s">
         <v>54</v>
       </c>
       <c r="B10" s="78"/>
     </row>
-    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>49</v>
       </c>
@@ -3660,7 +3701,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>50</v>
       </c>
@@ -3668,7 +3709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>51</v>
       </c>
@@ -3676,7 +3717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
         <v>52</v>
       </c>
@@ -3697,8 +3738,8 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="D1:E1" location="'ДАННЫЕ О ВАШЕЙ ОРГАНИЗАЦИИ'!A1" display="Назад к заполнению" xr:uid="{E1F696B4-615B-4F52-8775-068775C73B5C}"/>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="D1:E1" location="'ДАННЫЕ О ВАШЕЙ ОРГАНИЗАЦИИ'!A1" display="Назад к заполнению"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -3708,19 +3749,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.7109375" customWidth="1"/>
-    <col min="2" max="2" width="120.140625" customWidth="1"/>
+    <col min="1" max="1" width="46.6640625" customWidth="1"/>
+    <col min="2" max="2" width="120.109375" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>55</v>
       </c>
@@ -3731,7 +3772,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>53</v>
       </c>
@@ -3739,7 +3780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>57</v>
       </c>
@@ -3750,14 +3791,14 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="LnX9M5yxriaTVQim5SAi3WyXhXpQ9K/qOt07PnzzQH8z7LoyM0EszMHYLFLDkk5KuddSJv5Fv4qGALVO8N7/Gg==" saltValue="qVwDAvUgmk4CMeqcHxR/Hw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
-    <hyperlink ref="C1" location="'АДРЕСНАЯ ИНФОРМАЦИЯ'!A1" display="Вернуться к заполнению" xr:uid="{297484AD-B70F-4B56-B453-0CC7A5A5D04F}"/>
+    <hyperlink ref="C1" location="'АДРЕСНАЯ ИНФОРМАЦИЯ'!A1" display="Вернуться к заполнению"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -3765,19 +3806,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="62.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="152.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="3" customWidth="1"/>
+    <col min="2" max="3" width="62.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="152.5546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C1" s="59" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>3</v>
       </c>
@@ -3791,7 +3832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="38">
         <v>1</v>
       </c>
@@ -3803,7 +3844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="38">
         <v>2</v>
       </c>
@@ -3817,7 +3858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="38">
         <v>3</v>
       </c>
@@ -3829,7 +3870,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="175.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="175.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="38">
         <v>4</v>
       </c>
@@ -3841,7 +3882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38">
         <v>5</v>
       </c>
@@ -3853,7 +3894,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="205.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="205.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="38">
         <v>6</v>
       </c>
@@ -3865,7 +3906,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="219" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="219" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="38">
         <v>7</v>
       </c>
@@ -3877,7 +3918,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="38">
         <v>8</v>
       </c>
@@ -3889,7 +3930,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="38">
         <v>9</v>
       </c>
@@ -3901,7 +3942,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="38">
         <v>10</v>
       </c>
@@ -3913,7 +3954,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38">
         <v>11</v>
       </c>
@@ -3925,7 +3966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="38">
         <v>12</v>
       </c>
@@ -3937,7 +3978,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
         <v>13</v>
       </c>
@@ -3949,7 +3990,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="38">
         <v>14</v>
       </c>
@@ -3961,7 +4002,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="38">
         <v>15</v>
       </c>
@@ -3973,31 +4014,31 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="tkOr+NASy5RyKWqbD/Sitwtlx56hD4cvD/CmA+0Ry5KCU/E1gjdhIGqe2sMXAJsmrT2jyD9Gyg6wME3rBxfoUw==" saltValue="p/H5Zca0PzgnMLuPS/AuqA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
-    <hyperlink ref="C1" location="'КУРИРУЮЩЕЕ МИНИСТЕРСТВО'!A1" display="Назад к заполнению" xr:uid="{A0FD94FB-30DF-42AD-958D-AC9A2101EB95}"/>
+    <hyperlink ref="C1" location="'КУРИРУЮЩЕЕ МИНИСТЕРСТВО'!A1" display="Назад к заполнению"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="41" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="41" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="41" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="41" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>58</v>
       </c>
@@ -4011,7 +4052,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>61</v>
       </c>
@@ -4022,7 +4063,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
         <v>64</v>
       </c>
@@ -4033,7 +4074,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
         <v>67</v>
       </c>
@@ -4044,7 +4085,7 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="GZ2Ec/CkDA4FEzEhF9PzvByO3IfqaNYf8gK4wcMhiXMc5XKUD4YxsPoOhzR+llp0F49/d/LE/8idHurxM6u+ug==" saltValue="Wyscc8WC0+vXYvIsRDnk3A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
-    <hyperlink ref="D1" location="'РАБОТНИКИ ВЫХОДЯЩИЕ НА РАБОТУ'!A1" display="Вернуть к заполнению" xr:uid="{4D336B95-10A0-47E9-8FEE-0EAD345CEF80}"/>
+    <hyperlink ref="D1" location="'РАБОТНИКИ ВЫХОДЯЩИЕ НА РАБОТУ'!A1" display="Вернуть к заполнению"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/template.xlsx
+++ b/src/main/resources/template.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ЕИС Работающая Бурятия\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276D64D3-E003-47AF-B4E4-ABC118D88059}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD990290-6779-4CFF-B200-316E25E4CDA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="X63vqxGaR0w3itOZCFSudR4Bv4X4jNKmFGHlbFTqctsd/u8oR4S3M35A+12MYHgTdmTrEWGpbu8lqphyfAAk9w==" workbookSaltValue="kUk0Az6feS+owcQsOXQmqw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ДАННЫЕ О ВАШЕЙ ОРГАНИЗАЦИИ" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="96">
   <si>
     <t>ООО Ромашка</t>
   </si>
@@ -773,6 +773,18 @@
       </rPr>
       <t>ОГРН  (13 или 15 цифр)</t>
     </r>
+  </si>
+  <si>
+    <t>Организации, осуществляющие деятельность в сфере противопожарной безопасности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Управление МЧС по РБ </t>
+  </si>
+  <si>
+    <t>Частные охранные предприятия</t>
+  </si>
+  <si>
+    <t>Росгвардия</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1295,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1445,6 +1457,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1822,7 +1837,7 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1835,12 +1850,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
       <c r="E1" s="56" t="s">
         <v>80</v>
       </c>
@@ -1918,10 +1933,10 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="69"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1998,7 +2013,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E1" location="'Пример ДАННЫЕ О ВАШЕЙ ОРГАНИЗА '!A1" display="Посмотреть пример заполнения" xr:uid="{733EFB04-6A1F-40FD-A829-F52994521F1F}"/>
+    <hyperlink ref="E1" location="'Пример ДАННЫЕ О ВАШЕЙ ОРГАНИЗА '!A1" display="Посмотреть пример заполнения" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2008,7 +2023,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F300"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2026,20 +2043,20 @@
       <c r="B1" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
@@ -3240,7 +3257,7 @@
     <mergeCell ref="C2:F2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1:F1" location="'Пример АДРЕСНАЯ ИНФОРМАЦИЯ'!A1" display="Просмотреть пример" xr:uid="{70E52A33-D019-42A3-AA78-5CC069BE8C5D}"/>
+    <hyperlink ref="C1:F1" location="'Пример АДРЕСНАЯ ИНФОРМАЦИЯ'!A1" display="Просмотреть пример" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3285,18 +3302,18 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="geU6qXBGhbpKCu4aPeT1zO5/rk8moABelUnTZE4AOs5Z9vEToilQ0DTTi/YswtfrTY2Z4pqfsNSbhM2eXtuNUA==" saltValue="XChPwZ0KMxQPMKGvQgwHsg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
-    <hyperlink ref="D1" location="'Пример РАБОТНИКИ ВЫХОДЯЩИЕ НА Р'!A1" display="Просмотреть пример" xr:uid="{5AE45F03-4B2F-402B-94CD-D409D20DFC72}"/>
+    <hyperlink ref="D1" location="'Пример РАБОТНИКИ ВЫХОДЯЩИЕ НА Р'!A1" display="Просмотреть пример" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D1100A-C722-4803-AF08-2F7D2DAE2A2D}">
-  <dimension ref="A1:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3308,14 +3325,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="76"/>
+      <c r="D1" s="77"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
@@ -3500,7 +3517,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33">
+      <c r="A17" s="38">
         <v>15</v>
       </c>
       <c r="B17" s="33" t="s">
@@ -3512,7 +3529,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" s="3" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
+      <c r="A18" s="38">
         <v>16</v>
       </c>
       <c r="B18" s="33" t="s">
@@ -3523,14 +3540,38 @@
         <v>88</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="68">
+        <v>17</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="36"/>
+      <c r="D19" s="31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="68">
+        <v>18</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="36"/>
+      <c r="D20" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="h2bPIfeeSWi4FIqsovyPQca9epcrkkYTcbnwwGUiQn6FCg29M/BfJ9xXuo+rKQYjo+6iAf0L76Jq64fBSu1FyA==" saltValue="9MXVZdyUkMLCWfg7p9RAwg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ktdPxxIsMhuxwMyNJeVv0XRKBi4jaxlzL46uhUcG/JIfg5Na0cKimE15KlbWW0l9qcUzxNMiwplTpwph2HrTuA==" saltValue="eghf58OFrpt75x8BXMmUYg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1:D1" location="'Пример Курирующее министерство'!A1" display="Просмотреть пример" xr:uid="{66884E54-828B-4067-B7E8-FE0FAB262ADF}"/>
+    <hyperlink ref="C1:D1" location="'Пример Курирующее министерство'!A1" display="Просмотреть пример" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3557,15 +3598,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="81" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="82"/>
+      <c r="E1" s="83"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -3647,10 +3688,10 @@
     </row>
     <row r="9" spans="1:9" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="78"/>
+      <c r="B10" s="79"/>
     </row>
     <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
@@ -3698,7 +3739,7 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="D1:E1" location="'ДАННЫЕ О ВАШЕЙ ОРГАНИЗАЦИИ'!A1" display="Назад к заполнению" xr:uid="{E1F696B4-615B-4F52-8775-068775C73B5C}"/>
+    <hyperlink ref="D1:E1" location="'ДАННЫЕ О ВАШЕЙ ОРГАНИЗАЦИИ'!A1" display="Назад к заполнению" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -3750,14 +3791,14 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="LnX9M5yxriaTVQim5SAi3WyXhXpQ9K/qOt07PnzzQH8z7LoyM0EszMHYLFLDkk5KuddSJv5Fv4qGALVO8N7/Gg==" saltValue="qVwDAvUgmk4CMeqcHxR/Hw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
-    <hyperlink ref="C1" location="'АДРЕСНАЯ ИНФОРМАЦИЯ'!A1" display="Вернуться к заполнению" xr:uid="{297484AD-B70F-4B56-B453-0CC7A5A5D04F}"/>
+    <hyperlink ref="C1" location="'АДРЕСНАЯ ИНФОРМАЦИЯ'!A1" display="Вернуться к заполнению" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -3977,14 +4018,14 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="tkOr+NASy5RyKWqbD/Sitwtlx56hD4cvD/CmA+0Ry5KCU/E1gjdhIGqe2sMXAJsmrT2jyD9Gyg6wME3rBxfoUw==" saltValue="p/H5Zca0PzgnMLuPS/AuqA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
-    <hyperlink ref="C1" location="'КУРИРУЮЩЕЕ МИНИСТЕРСТВО'!A1" display="Назад к заполнению" xr:uid="{A0FD94FB-30DF-42AD-958D-AC9A2101EB95}"/>
+    <hyperlink ref="C1" location="'КУРИРУЮЩЕЕ МИНИСТЕРСТВО'!A1" display="Назад к заполнению" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4044,7 +4085,7 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="GZ2Ec/CkDA4FEzEhF9PzvByO3IfqaNYf8gK4wcMhiXMc5XKUD4YxsPoOhzR+llp0F49/d/LE/8idHurxM6u+ug==" saltValue="Wyscc8WC0+vXYvIsRDnk3A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
-    <hyperlink ref="D1" location="'РАБОТНИКИ ВЫХОДЯЩИЕ НА РАБОТУ'!A1" display="Вернуть к заполнению" xr:uid="{4D336B95-10A0-47E9-8FEE-0EAD345CEF80}"/>
+    <hyperlink ref="D1" location="'РАБОТНИКИ ВЫХОДЯЩИЕ НА РАБОТУ'!A1" display="Вернуть к заполнению" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/template.xlsx
+++ b/src/main/resources/template.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ЕИС Работающая Бурятия\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaProjects\addcovid-new\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD990290-6779-4CFF-B200-316E25E4CDA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="X63vqxGaR0w3itOZCFSudR4Bv4X4jNKmFGHlbFTqctsd/u8oR4S3M35A+12MYHgTdmTrEWGpbu8lqphyfAAk9w==" workbookSaltValue="kUk0Az6feS+owcQsOXQmqw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ДАННЫЕ О ВАШЕЙ ОРГАНИЗАЦИИ" sheetId="1" r:id="rId1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="98">
   <si>
     <t>ООО Ромашка</t>
   </si>
@@ -786,11 +785,17 @@
   <si>
     <t>Росгвардия</t>
   </si>
+  <si>
+    <t>Комитет по межнациональным отношениям и развитию гражданских инициатив АГИП</t>
+  </si>
+  <si>
+    <t>Деятельность религиозных организаций в целях совместного исповедания и распространения веры, в том числе реализация религиозными организациями предметов религиозного назначения и религиозной литературы</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1295,7 +1300,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1452,10 +1457,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1833,7 +1834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -1841,26 +1842,26 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.5703125" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="46.140625" customWidth="1"/>
-    <col min="5" max="5" width="57.5703125" customWidth="1"/>
+    <col min="1" max="1" width="48.5546875" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="4" max="4" width="46.109375" customWidth="1"/>
+    <col min="5" max="5" width="57.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
       <c r="E1" s="56" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>69</v>
       </c>
@@ -1871,7 +1872,7 @@
       </c>
       <c r="E2" s="47"/>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>70</v>
       </c>
@@ -1882,7 +1883,7 @@
       </c>
       <c r="E3" s="48"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>71</v>
       </c>
@@ -1891,7 +1892,7 @@
       <c r="D4" s="30"/>
       <c r="E4" s="27"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>91</v>
       </c>
@@ -1900,7 +1901,7 @@
       <c r="D5" s="26"/>
       <c r="E5" s="27"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>72</v>
       </c>
@@ -1909,7 +1910,7 @@
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
         <v>73</v>
       </c>
@@ -1918,30 +1919,30 @@
       <c r="D7" s="29"/>
       <c r="E7" s="49"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="70"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="50" t="s">
         <v>75</v>
       </c>
@@ -1950,7 +1951,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="52" t="s">
         <v>76</v>
       </c>
@@ -1959,7 +1960,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="52" t="s">
         <v>77</v>
       </c>
@@ -1968,7 +1969,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="54" t="s">
         <v>78</v>
       </c>
@@ -1976,7 +1977,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="57" t="s">
         <v>82</v>
       </c>
@@ -2013,1240 +2014,1240 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E1" location="'Пример ДАННЫЕ О ВАШЕЙ ОРГАНИЗА '!A1" display="Посмотреть пример заполнения" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E1" location="'Пример ДАННЫЕ О ВАШЕЙ ОРГАНИЗА '!A1" display="Посмотреть пример заполнения"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" style="3" customWidth="1"/>
-    <col min="3" max="5" width="8.85546875" style="3"/>
-    <col min="6" max="6" width="19.5703125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="46.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="8.88671875" style="3"/>
+    <col min="6" max="6" width="19.5546875" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="73"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="36"/>
       <c r="B3" s="36"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="36"/>
       <c r="B5" s="36"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="36"/>
       <c r="B7" s="36"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="36"/>
       <c r="B9" s="36"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="36"/>
       <c r="B51" s="36"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="36"/>
       <c r="B53" s="36"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="36"/>
       <c r="B54" s="36"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="36"/>
       <c r="B55" s="36"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="36"/>
       <c r="B56" s="36"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="36"/>
       <c r="B57" s="36"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="36"/>
       <c r="B58" s="36"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="36"/>
       <c r="B59" s="36"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="36"/>
       <c r="B60" s="36"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="36"/>
       <c r="B61" s="36"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="36"/>
       <c r="B62" s="36"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="36"/>
       <c r="B63" s="36"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="36"/>
       <c r="B64" s="36"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="36"/>
       <c r="B65" s="36"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="36"/>
       <c r="B66" s="36"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="36"/>
       <c r="B67" s="36"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="36"/>
       <c r="B68" s="36"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="36"/>
       <c r="B69" s="36"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="36"/>
       <c r="B70" s="36"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="36"/>
       <c r="B71" s="36"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="36"/>
       <c r="B72" s="36"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="36"/>
       <c r="B73" s="36"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="36"/>
       <c r="B74" s="36"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="36"/>
       <c r="B75" s="36"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="36"/>
       <c r="B76" s="36"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="36"/>
       <c r="B77" s="36"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="36"/>
       <c r="B78" s="36"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="36"/>
       <c r="B79" s="36"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="36"/>
       <c r="B80" s="36"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="36"/>
       <c r="B81" s="36"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="36"/>
       <c r="B82" s="36"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="36"/>
       <c r="B83" s="36"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="36"/>
       <c r="B84" s="36"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="36"/>
       <c r="B85" s="36"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="36"/>
       <c r="B86" s="36"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="36"/>
       <c r="B87" s="36"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="36"/>
       <c r="B88" s="36"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="36"/>
       <c r="B89" s="36"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="36"/>
       <c r="B90" s="36"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="36"/>
       <c r="B91" s="36"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="36"/>
       <c r="B92" s="36"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="36"/>
       <c r="B93" s="36"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="36"/>
       <c r="B94" s="36"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="36"/>
       <c r="B95" s="36"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="36"/>
       <c r="B96" s="36"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="36"/>
       <c r="B97" s="36"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="36"/>
       <c r="B98" s="36"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="36"/>
       <c r="B99" s="36"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="36"/>
       <c r="B100" s="36"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="36"/>
       <c r="B101" s="36"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="36"/>
       <c r="B102" s="36"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="36"/>
       <c r="B103" s="36"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="36"/>
       <c r="B104" s="36"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="36"/>
       <c r="B105" s="36"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="36"/>
       <c r="B106" s="36"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="36"/>
       <c r="B107" s="36"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="36"/>
       <c r="B108" s="36"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="36"/>
       <c r="B109" s="36"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="36"/>
       <c r="B110" s="36"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="36"/>
       <c r="B111" s="36"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="36"/>
       <c r="B112" s="36"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="36"/>
       <c r="B113" s="36"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="36"/>
       <c r="B114" s="36"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="36"/>
       <c r="B115" s="36"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="36"/>
       <c r="B116" s="36"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="36"/>
       <c r="B117" s="36"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="36"/>
       <c r="B118" s="36"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="36"/>
       <c r="B119" s="36"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="36"/>
       <c r="B120" s="36"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="36"/>
       <c r="B121" s="36"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="36"/>
       <c r="B122" s="36"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="36"/>
       <c r="B123" s="36"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="36"/>
       <c r="B124" s="36"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="36"/>
       <c r="B125" s="36"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="36"/>
       <c r="B126" s="36"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="36"/>
       <c r="B127" s="36"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="36"/>
       <c r="B128" s="36"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="36"/>
       <c r="B129" s="36"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="36"/>
       <c r="B130" s="36"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="36"/>
       <c r="B131" s="36"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="36"/>
       <c r="B132" s="36"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="36"/>
       <c r="B133" s="36"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="36"/>
       <c r="B134" s="36"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="36"/>
       <c r="B135" s="36"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="36"/>
       <c r="B136" s="36"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="36"/>
       <c r="B137" s="36"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="36"/>
       <c r="B138" s="36"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="36"/>
       <c r="B139" s="36"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="36"/>
       <c r="B140" s="36"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="36"/>
       <c r="B141" s="36"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="36"/>
       <c r="B142" s="36"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="36"/>
       <c r="B143" s="36"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="36"/>
       <c r="B144" s="36"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="36"/>
       <c r="B145" s="36"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="36"/>
       <c r="B146" s="36"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="36"/>
       <c r="B147" s="36"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="36"/>
       <c r="B148" s="36"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="36"/>
       <c r="B149" s="36"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="36"/>
       <c r="B150" s="36"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="36"/>
       <c r="B151" s="36"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="36"/>
       <c r="B152" s="36"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="36"/>
       <c r="B153" s="36"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="36"/>
       <c r="B154" s="36"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="36"/>
       <c r="B155" s="36"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="36"/>
       <c r="B156" s="36"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="36"/>
       <c r="B157" s="36"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="36"/>
       <c r="B158" s="36"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="36"/>
       <c r="B159" s="36"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="36"/>
       <c r="B160" s="36"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="36"/>
       <c r="B161" s="36"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="36"/>
       <c r="B162" s="36"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="36"/>
       <c r="B163" s="36"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="36"/>
       <c r="B164" s="36"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="36"/>
       <c r="B165" s="36"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="36"/>
       <c r="B166" s="36"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="36"/>
       <c r="B167" s="36"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="36"/>
       <c r="B168" s="36"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="36"/>
       <c r="B169" s="36"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="36"/>
       <c r="B170" s="36"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="36"/>
       <c r="B171" s="36"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="36"/>
       <c r="B172" s="36"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="36"/>
       <c r="B173" s="36"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="36"/>
       <c r="B174" s="36"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="36"/>
       <c r="B175" s="36"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="36"/>
       <c r="B176" s="36"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="36"/>
       <c r="B177" s="36"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="36"/>
       <c r="B178" s="36"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="36"/>
       <c r="B179" s="36"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="36"/>
       <c r="B180" s="36"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="36"/>
       <c r="B181" s="36"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="36"/>
       <c r="B182" s="36"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="36"/>
       <c r="B183" s="36"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="36"/>
       <c r="B184" s="36"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="36"/>
       <c r="B185" s="36"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="36"/>
       <c r="B186" s="36"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="36"/>
       <c r="B187" s="36"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="36"/>
       <c r="B188" s="36"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="36"/>
       <c r="B189" s="36"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="36"/>
       <c r="B190" s="36"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="36"/>
       <c r="B191" s="36"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="36"/>
       <c r="B192" s="36"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="36"/>
       <c r="B193" s="36"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="36"/>
       <c r="B194" s="36"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="36"/>
       <c r="B195" s="36"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="36"/>
       <c r="B196" s="36"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="36"/>
       <c r="B197" s="36"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="36"/>
       <c r="B198" s="36"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="36"/>
       <c r="B199" s="36"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="36"/>
       <c r="B200" s="36"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="36"/>
       <c r="B201" s="36"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="36"/>
       <c r="B202" s="36"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="36"/>
       <c r="B203" s="36"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="36"/>
       <c r="B204" s="36"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="36"/>
       <c r="B205" s="36"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="36"/>
       <c r="B206" s="36"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="36"/>
       <c r="B207" s="36"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="36"/>
       <c r="B208" s="36"/>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="36"/>
       <c r="B209" s="36"/>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="36"/>
       <c r="B210" s="36"/>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="36"/>
       <c r="B211" s="36"/>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="36"/>
       <c r="B212" s="36"/>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="36"/>
       <c r="B213" s="36"/>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="36"/>
       <c r="B214" s="36"/>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="36"/>
       <c r="B215" s="36"/>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="36"/>
       <c r="B216" s="36"/>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="36"/>
       <c r="B217" s="36"/>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="36"/>
       <c r="B218" s="36"/>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="36"/>
       <c r="B219" s="36"/>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="36"/>
       <c r="B220" s="36"/>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="36"/>
       <c r="B221" s="36"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="36"/>
       <c r="B222" s="36"/>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="36"/>
       <c r="B223" s="36"/>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="36"/>
       <c r="B224" s="36"/>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="36"/>
       <c r="B225" s="36"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="36"/>
       <c r="B226" s="36"/>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="36"/>
       <c r="B227" s="36"/>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="36"/>
       <c r="B228" s="36"/>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="36"/>
       <c r="B229" s="36"/>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="36"/>
       <c r="B230" s="36"/>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="36"/>
       <c r="B231" s="36"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="36"/>
       <c r="B232" s="36"/>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="36"/>
       <c r="B233" s="36"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="36"/>
       <c r="B234" s="36"/>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="36"/>
       <c r="B235" s="36"/>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="36"/>
       <c r="B236" s="36"/>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="36"/>
       <c r="B237" s="36"/>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="36"/>
       <c r="B238" s="36"/>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="36"/>
       <c r="B239" s="36"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="36"/>
       <c r="B240" s="36"/>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="36"/>
       <c r="B241" s="36"/>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="36"/>
       <c r="B242" s="36"/>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="36"/>
       <c r="B243" s="36"/>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="36"/>
       <c r="B244" s="36"/>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="36"/>
       <c r="B245" s="36"/>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="36"/>
       <c r="B246" s="36"/>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="36"/>
       <c r="B247" s="36"/>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="36"/>
       <c r="B248" s="36"/>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="36"/>
       <c r="B249" s="36"/>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="36"/>
       <c r="B250" s="36"/>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="36"/>
       <c r="B251" s="36"/>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="36"/>
       <c r="B252" s="36"/>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="36"/>
       <c r="B253" s="36"/>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="36"/>
       <c r="B254" s="36"/>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="36"/>
       <c r="B255" s="36"/>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="36"/>
       <c r="B256" s="36"/>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="36"/>
       <c r="B257" s="36"/>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="36"/>
       <c r="B258" s="36"/>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="36"/>
       <c r="B259" s="36"/>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="36"/>
       <c r="B260" s="36"/>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="36"/>
       <c r="B261" s="36"/>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="36"/>
       <c r="B262" s="36"/>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="36"/>
       <c r="B263" s="36"/>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="36"/>
       <c r="B264" s="36"/>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="36"/>
       <c r="B265" s="36"/>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="36"/>
       <c r="B266" s="36"/>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="36"/>
       <c r="B267" s="36"/>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="36"/>
       <c r="B268" s="36"/>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="36"/>
       <c r="B269" s="36"/>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="36"/>
       <c r="B270" s="36"/>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="36"/>
       <c r="B271" s="36"/>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="36"/>
       <c r="B272" s="36"/>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="36"/>
       <c r="B273" s="36"/>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="36"/>
       <c r="B274" s="36"/>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="36"/>
       <c r="B275" s="36"/>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="36"/>
       <c r="B276" s="36"/>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="36"/>
       <c r="B277" s="36"/>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="36"/>
       <c r="B278" s="36"/>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="36"/>
       <c r="B279" s="36"/>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="36"/>
       <c r="B280" s="36"/>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="36"/>
       <c r="B281" s="36"/>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="36"/>
       <c r="B282" s="36"/>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="36"/>
       <c r="B283" s="36"/>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="36"/>
       <c r="B284" s="36"/>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="36"/>
       <c r="B285" s="36"/>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="36"/>
       <c r="B286" s="36"/>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="36"/>
       <c r="B287" s="36"/>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="36"/>
       <c r="B288" s="36"/>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="36"/>
       <c r="B289" s="36"/>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="36"/>
       <c r="B290" s="36"/>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="36"/>
       <c r="B291" s="36"/>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="36"/>
       <c r="B292" s="36"/>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="36"/>
       <c r="B293" s="36"/>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="36"/>
       <c r="B294" s="36"/>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="36"/>
       <c r="B295" s="36"/>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="36"/>
       <c r="B296" s="36"/>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="36"/>
       <c r="B297" s="36"/>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="36"/>
       <c r="B298" s="36"/>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" s="36"/>
       <c r="B299" s="36"/>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="36"/>
       <c r="B300" s="36"/>
     </row>
@@ -3257,29 +3258,29 @@
     <mergeCell ref="C2:F2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1:F1" location="'Пример АДРЕСНАЯ ИНФОРМАЦИЯ'!A1" display="Просмотреть пример" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C1:F1" location="'Пример АДРЕСНАЯ ИНФОРМАЦИЯ'!A1" display="Просмотреть пример"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="37" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="37" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" style="37" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="37" customWidth="1"/>
     <col min="3" max="3" width="28" style="37" customWidth="1"/>
-    <col min="4" max="4" width="47.140625" customWidth="1"/>
+    <col min="4" max="4" width="47.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>58</v>
       </c>
@@ -3295,46 +3296,46 @@
       <c r="E1" s="64"/>
       <c r="F1" s="64"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="62"/>
       <c r="D2" s="65"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="geU6qXBGhbpKCu4aPeT1zO5/rk8moABelUnTZE4AOs5Z9vEToilQ0DTTi/YswtfrTY2Z4pqfsNSbhM2eXtuNUA==" saltValue="XChPwZ0KMxQPMKGvQgwHsg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
-    <hyperlink ref="D1" location="'Пример РАБОТНИКИ ВЫХОДЯЩИЕ НА Р'!A1" display="Просмотреть пример" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D1" location="'Пример РАБОТНИКИ ВЫХОДЯЩИЕ НА Р'!A1" display="Просмотреть пример"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="152.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="152.5546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="77" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="77"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="76"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>3</v>
       </c>
@@ -3348,7 +3349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="38">
         <v>1</v>
       </c>
@@ -3360,7 +3361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="38">
         <v>2</v>
       </c>
@@ -3372,7 +3373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="38">
         <v>3</v>
       </c>
@@ -3384,7 +3385,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="175.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="175.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="38">
         <v>4</v>
       </c>
@@ -3396,7 +3397,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38">
         <v>5</v>
       </c>
@@ -3408,7 +3409,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="205.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="205.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="38">
         <v>6</v>
       </c>
@@ -3420,7 +3421,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="219" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="219" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="38">
         <v>7</v>
       </c>
@@ -3432,7 +3433,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="38">
         <v>8</v>
       </c>
@@ -3444,7 +3445,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="38">
         <v>9</v>
       </c>
@@ -3456,7 +3457,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="38">
         <v>10</v>
       </c>
@@ -3468,7 +3469,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38">
         <v>11</v>
       </c>
@@ -3480,7 +3481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="38">
         <v>12</v>
       </c>
@@ -3492,7 +3493,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
         <v>13</v>
       </c>
@@ -3504,7 +3505,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="38">
         <v>14</v>
       </c>
@@ -3516,69 +3517,81 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="38">
         <v>15</v>
       </c>
       <c r="B17" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="67"/>
+      <c r="C17" s="66"/>
       <c r="D17" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="3" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="3" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="38">
         <v>16</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="67"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="33" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="68">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="67">
         <v>17</v>
       </c>
       <c r="B19" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="36"/>
+      <c r="C19" s="66"/>
       <c r="D19" s="31" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="68">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="67">
         <v>18</v>
       </c>
       <c r="B20" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="36"/>
+      <c r="C20" s="66"/>
       <c r="D20" s="31" t="s">
         <v>94</v>
       </c>
     </row>
+    <row r="21" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="38">
+        <v>19</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="66"/>
+      <c r="D21" s="31" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ktdPxxIsMhuxwMyNJeVv0XRKBi4jaxlzL46uhUcG/JIfg5Na0cKimE15KlbWW0l9qcUzxNMiwplTpwph2HrTuA==" saltValue="eghf58OFrpt75x8BXMmUYg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2UNuMLcZRVhgVfi2tuzGIo5+t2mG7pjEfJMLfg0qqzmQn9jybdJuWIkFnAzTynFIFTGBDJLSgEp21WpaNE+uew==" saltValue="4yXutuFIZiYr5p9MLJEicA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1:D1" location="'Пример Курирующее министерство'!A1" display="Просмотреть пример" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="C1:D1" location="'Пример Курирующее министерство'!A1" display="Просмотреть пример"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:I14"/>
   <sheetViews>
@@ -3586,33 +3599,33 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="73.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="2"/>
-    <col min="4" max="4" width="57.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="51.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="73.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="57.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="51.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="29" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="2"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="83"/>
+      <c r="E1" s="82"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>36</v>
       </c>
@@ -3627,7 +3640,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>37</v>
       </c>
@@ -3642,7 +3655,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>38</v>
       </c>
@@ -3653,7 +3666,7 @@
       <c r="D4" s="16"/>
       <c r="E4" s="15"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>41</v>
       </c>
@@ -3664,7 +3677,7 @@
       <c r="D5" s="13"/>
       <c r="E5" s="17"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>39</v>
       </c>
@@ -3675,7 +3688,7 @@
       <c r="D6" s="13"/>
       <c r="E6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>43</v>
       </c>
@@ -3686,14 +3699,14 @@
       <c r="D7" s="18"/>
       <c r="E7" s="19"/>
     </row>
-    <row r="9" spans="1:9" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="78" t="s">
+    <row r="9" spans="1:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="79"/>
-    </row>
-    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="78"/>
+    </row>
+    <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>49</v>
       </c>
@@ -3701,7 +3714,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>50</v>
       </c>
@@ -3709,7 +3722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>51</v>
       </c>
@@ -3717,7 +3730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
         <v>52</v>
       </c>
@@ -3738,8 +3751,8 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="D1:E1" location="'ДАННЫЕ О ВАШЕЙ ОРГАНИЗАЦИИ'!A1" display="Назад к заполнению" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="D1:E1" location="'ДАННЫЕ О ВАШЕЙ ОРГАНИЗАЦИИ'!A1" display="Назад к заполнению"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -3749,19 +3762,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.7109375" customWidth="1"/>
-    <col min="2" max="2" width="120.140625" customWidth="1"/>
+    <col min="1" max="1" width="46.6640625" customWidth="1"/>
+    <col min="2" max="2" width="120.109375" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>55</v>
       </c>
@@ -3772,7 +3785,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>53</v>
       </c>
@@ -3780,7 +3793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>57</v>
       </c>
@@ -3791,14 +3804,14 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="LnX9M5yxriaTVQim5SAi3WyXhXpQ9K/qOt07PnzzQH8z7LoyM0EszMHYLFLDkk5KuddSJv5Fv4qGALVO8N7/Gg==" saltValue="qVwDAvUgmk4CMeqcHxR/Hw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
-    <hyperlink ref="C1" location="'АДРЕСНАЯ ИНФОРМАЦИЯ'!A1" display="Вернуться к заполнению" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="C1" location="'АДРЕСНАЯ ИНФОРМАЦИЯ'!A1" display="Вернуться к заполнению"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -3806,19 +3819,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="62.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="152.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="3" customWidth="1"/>
+    <col min="2" max="3" width="62.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="152.5546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C1" s="59" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>3</v>
       </c>
@@ -3832,7 +3845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="38">
         <v>1</v>
       </c>
@@ -3844,7 +3857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="38">
         <v>2</v>
       </c>
@@ -3858,7 +3871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="38">
         <v>3</v>
       </c>
@@ -3870,7 +3883,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="175.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="175.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="38">
         <v>4</v>
       </c>
@@ -3882,7 +3895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38">
         <v>5</v>
       </c>
@@ -3894,7 +3907,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="205.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="205.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="38">
         <v>6</v>
       </c>
@@ -3906,7 +3919,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="219" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="219" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="38">
         <v>7</v>
       </c>
@@ -3918,7 +3931,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="38">
         <v>8</v>
       </c>
@@ -3930,7 +3943,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="38">
         <v>9</v>
       </c>
@@ -3942,7 +3955,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="38">
         <v>10</v>
       </c>
@@ -3954,7 +3967,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38">
         <v>11</v>
       </c>
@@ -3966,7 +3979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="38">
         <v>12</v>
       </c>
@@ -3978,7 +3991,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
         <v>13</v>
       </c>
@@ -3990,7 +4003,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="38">
         <v>14</v>
       </c>
@@ -4002,7 +4015,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="38">
         <v>15</v>
       </c>
@@ -4014,31 +4027,31 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="tkOr+NASy5RyKWqbD/Sitwtlx56hD4cvD/CmA+0Ry5KCU/E1gjdhIGqe2sMXAJsmrT2jyD9Gyg6wME3rBxfoUw==" saltValue="p/H5Zca0PzgnMLuPS/AuqA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
-    <hyperlink ref="C1" location="'КУРИРУЮЩЕЕ МИНИСТЕРСТВО'!A1" display="Назад к заполнению" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="C1" location="'КУРИРУЮЩЕЕ МИНИСТЕРСТВО'!A1" display="Назад к заполнению"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="41" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="41" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="41" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="41" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>58</v>
       </c>
@@ -4052,7 +4065,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>61</v>
       </c>
@@ -4063,7 +4076,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
         <v>64</v>
       </c>
@@ -4074,7 +4087,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
         <v>67</v>
       </c>
@@ -4085,7 +4098,7 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="GZ2Ec/CkDA4FEzEhF9PzvByO3IfqaNYf8gK4wcMhiXMc5XKUD4YxsPoOhzR+llp0F49/d/LE/8idHurxM6u+ug==" saltValue="Wyscc8WC0+vXYvIsRDnk3A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
-    <hyperlink ref="D1" location="'РАБОТНИКИ ВЫХОДЯЩИЕ НА РАБОТУ'!A1" display="Вернуть к заполнению" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="D1" location="'РАБОТНИКИ ВЫХОДЯЩИЕ НА РАБОТУ'!A1" display="Вернуть к заполнению"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/template.xlsx
+++ b/src/main/resources/template.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ЕИС Работающая Бурятия\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaProjects\addcovid-new\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD990290-6779-4CFF-B200-316E25E4CDA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="X63vqxGaR0w3itOZCFSudR4Bv4X4jNKmFGHlbFTqctsd/u8oR4S3M35A+12MYHgTdmTrEWGpbu8lqphyfAAk9w==" workbookSaltValue="kUk0Az6feS+owcQsOXQmqw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ДАННЫЕ О ВАШЕЙ ОРГАНИЗАЦИИ" sheetId="1" r:id="rId1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="98">
   <si>
     <t>ООО Ромашка</t>
   </si>
@@ -786,11 +785,17 @@
   <si>
     <t>Росгвардия</t>
   </si>
+  <si>
+    <t>Бурприроднадзор</t>
+  </si>
+  <si>
+    <t>Юридические лица и (или) индивидуальные предприниматели, осуществляющие охотхозяйственную деятельность, мероприятия по защите охотничьих ресурсов от болезней, а также мероприятия по добыче охотничьих животных в целях предотвращения нанесения ущерба здоровью граждан, возникновения и распространения болезней охотничьих ресурсов, ущерба объектам животного мира и среде их обитания посредством проведения охоты в целях регулирования численности охотничьих ресурсов, охоты в целях научно-исследовательской деятельности</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1295,7 +1300,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1453,13 +1458,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1833,7 +1831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -1841,26 +1839,26 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.5703125" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="46.140625" customWidth="1"/>
-    <col min="5" max="5" width="57.5703125" customWidth="1"/>
+    <col min="1" max="1" width="48.5546875" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="4" max="4" width="46.109375" customWidth="1"/>
+    <col min="5" max="5" width="57.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
       <c r="E1" s="56" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>69</v>
       </c>
@@ -1871,7 +1869,7 @@
       </c>
       <c r="E2" s="47"/>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>70</v>
       </c>
@@ -1882,7 +1880,7 @@
       </c>
       <c r="E3" s="48"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>71</v>
       </c>
@@ -1891,7 +1889,7 @@
       <c r="D4" s="30"/>
       <c r="E4" s="27"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>91</v>
       </c>
@@ -1900,7 +1898,7 @@
       <c r="D5" s="26"/>
       <c r="E5" s="27"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>72</v>
       </c>
@@ -1909,7 +1907,7 @@
       <c r="D6" s="26"/>
       <c r="E6" s="27"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
         <v>73</v>
       </c>
@@ -1918,30 +1916,30 @@
       <c r="D7" s="29"/>
       <c r="E7" s="49"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="70"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="50" t="s">
         <v>75</v>
       </c>
@@ -1950,7 +1948,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="52" t="s">
         <v>76</v>
       </c>
@@ -1959,7 +1957,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="52" t="s">
         <v>77</v>
       </c>
@@ -1968,7 +1966,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="54" t="s">
         <v>78</v>
       </c>
@@ -1976,7 +1974,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="57" t="s">
         <v>82</v>
       </c>
@@ -2013,1240 +2011,1240 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E1" location="'Пример ДАННЫЕ О ВАШЕЙ ОРГАНИЗА '!A1" display="Посмотреть пример заполнения" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E1" location="'Пример ДАННЫЕ О ВАШЕЙ ОРГАНИЗА '!A1" display="Посмотреть пример заполнения"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" style="3" customWidth="1"/>
-    <col min="3" max="5" width="8.85546875" style="3"/>
-    <col min="6" max="6" width="19.5703125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="46.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="8.88671875" style="3"/>
+    <col min="6" max="6" width="19.5546875" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="72"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="36"/>
       <c r="B3" s="36"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="36"/>
       <c r="B5" s="36"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="36"/>
       <c r="B7" s="36"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="36"/>
       <c r="B9" s="36"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="36"/>
       <c r="B51" s="36"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="36"/>
       <c r="B53" s="36"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="36"/>
       <c r="B54" s="36"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="36"/>
       <c r="B55" s="36"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="36"/>
       <c r="B56" s="36"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="36"/>
       <c r="B57" s="36"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="36"/>
       <c r="B58" s="36"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="36"/>
       <c r="B59" s="36"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="36"/>
       <c r="B60" s="36"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="36"/>
       <c r="B61" s="36"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="36"/>
       <c r="B62" s="36"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="36"/>
       <c r="B63" s="36"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="36"/>
       <c r="B64" s="36"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="36"/>
       <c r="B65" s="36"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="36"/>
       <c r="B66" s="36"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="36"/>
       <c r="B67" s="36"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="36"/>
       <c r="B68" s="36"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="36"/>
       <c r="B69" s="36"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="36"/>
       <c r="B70" s="36"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="36"/>
       <c r="B71" s="36"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="36"/>
       <c r="B72" s="36"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="36"/>
       <c r="B73" s="36"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="36"/>
       <c r="B74" s="36"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="36"/>
       <c r="B75" s="36"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="36"/>
       <c r="B76" s="36"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="36"/>
       <c r="B77" s="36"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="36"/>
       <c r="B78" s="36"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="36"/>
       <c r="B79" s="36"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="36"/>
       <c r="B80" s="36"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="36"/>
       <c r="B81" s="36"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="36"/>
       <c r="B82" s="36"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="36"/>
       <c r="B83" s="36"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="36"/>
       <c r="B84" s="36"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="36"/>
       <c r="B85" s="36"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="36"/>
       <c r="B86" s="36"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="36"/>
       <c r="B87" s="36"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="36"/>
       <c r="B88" s="36"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="36"/>
       <c r="B89" s="36"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="36"/>
       <c r="B90" s="36"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="36"/>
       <c r="B91" s="36"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="36"/>
       <c r="B92" s="36"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="36"/>
       <c r="B93" s="36"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="36"/>
       <c r="B94" s="36"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="36"/>
       <c r="B95" s="36"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="36"/>
       <c r="B96" s="36"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="36"/>
       <c r="B97" s="36"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="36"/>
       <c r="B98" s="36"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="36"/>
       <c r="B99" s="36"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="36"/>
       <c r="B100" s="36"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="36"/>
       <c r="B101" s="36"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="36"/>
       <c r="B102" s="36"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="36"/>
       <c r="B103" s="36"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="36"/>
       <c r="B104" s="36"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="36"/>
       <c r="B105" s="36"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="36"/>
       <c r="B106" s="36"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="36"/>
       <c r="B107" s="36"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="36"/>
       <c r="B108" s="36"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="36"/>
       <c r="B109" s="36"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="36"/>
       <c r="B110" s="36"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="36"/>
       <c r="B111" s="36"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="36"/>
       <c r="B112" s="36"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="36"/>
       <c r="B113" s="36"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="36"/>
       <c r="B114" s="36"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="36"/>
       <c r="B115" s="36"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="36"/>
       <c r="B116" s="36"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="36"/>
       <c r="B117" s="36"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="36"/>
       <c r="B118" s="36"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="36"/>
       <c r="B119" s="36"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="36"/>
       <c r="B120" s="36"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="36"/>
       <c r="B121" s="36"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="36"/>
       <c r="B122" s="36"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="36"/>
       <c r="B123" s="36"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="36"/>
       <c r="B124" s="36"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="36"/>
       <c r="B125" s="36"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="36"/>
       <c r="B126" s="36"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="36"/>
       <c r="B127" s="36"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="36"/>
       <c r="B128" s="36"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="36"/>
       <c r="B129" s="36"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="36"/>
       <c r="B130" s="36"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="36"/>
       <c r="B131" s="36"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="36"/>
       <c r="B132" s="36"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="36"/>
       <c r="B133" s="36"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="36"/>
       <c r="B134" s="36"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="36"/>
       <c r="B135" s="36"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="36"/>
       <c r="B136" s="36"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="36"/>
       <c r="B137" s="36"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="36"/>
       <c r="B138" s="36"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="36"/>
       <c r="B139" s="36"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="36"/>
       <c r="B140" s="36"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="36"/>
       <c r="B141" s="36"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="36"/>
       <c r="B142" s="36"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="36"/>
       <c r="B143" s="36"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="36"/>
       <c r="B144" s="36"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="36"/>
       <c r="B145" s="36"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="36"/>
       <c r="B146" s="36"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="36"/>
       <c r="B147" s="36"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="36"/>
       <c r="B148" s="36"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="36"/>
       <c r="B149" s="36"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="36"/>
       <c r="B150" s="36"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="36"/>
       <c r="B151" s="36"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="36"/>
       <c r="B152" s="36"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="36"/>
       <c r="B153" s="36"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="36"/>
       <c r="B154" s="36"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="36"/>
       <c r="B155" s="36"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="36"/>
       <c r="B156" s="36"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="36"/>
       <c r="B157" s="36"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="36"/>
       <c r="B158" s="36"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="36"/>
       <c r="B159" s="36"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="36"/>
       <c r="B160" s="36"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="36"/>
       <c r="B161" s="36"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="36"/>
       <c r="B162" s="36"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="36"/>
       <c r="B163" s="36"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="36"/>
       <c r="B164" s="36"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="36"/>
       <c r="B165" s="36"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="36"/>
       <c r="B166" s="36"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="36"/>
       <c r="B167" s="36"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="36"/>
       <c r="B168" s="36"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="36"/>
       <c r="B169" s="36"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="36"/>
       <c r="B170" s="36"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="36"/>
       <c r="B171" s="36"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="36"/>
       <c r="B172" s="36"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="36"/>
       <c r="B173" s="36"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="36"/>
       <c r="B174" s="36"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="36"/>
       <c r="B175" s="36"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="36"/>
       <c r="B176" s="36"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="36"/>
       <c r="B177" s="36"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="36"/>
       <c r="B178" s="36"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="36"/>
       <c r="B179" s="36"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="36"/>
       <c r="B180" s="36"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="36"/>
       <c r="B181" s="36"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="36"/>
       <c r="B182" s="36"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="36"/>
       <c r="B183" s="36"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="36"/>
       <c r="B184" s="36"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="36"/>
       <c r="B185" s="36"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="36"/>
       <c r="B186" s="36"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="36"/>
       <c r="B187" s="36"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="36"/>
       <c r="B188" s="36"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="36"/>
       <c r="B189" s="36"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="36"/>
       <c r="B190" s="36"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="36"/>
       <c r="B191" s="36"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="36"/>
       <c r="B192" s="36"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="36"/>
       <c r="B193" s="36"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="36"/>
       <c r="B194" s="36"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="36"/>
       <c r="B195" s="36"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="36"/>
       <c r="B196" s="36"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="36"/>
       <c r="B197" s="36"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="36"/>
       <c r="B198" s="36"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="36"/>
       <c r="B199" s="36"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="36"/>
       <c r="B200" s="36"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="36"/>
       <c r="B201" s="36"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="36"/>
       <c r="B202" s="36"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="36"/>
       <c r="B203" s="36"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="36"/>
       <c r="B204" s="36"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="36"/>
       <c r="B205" s="36"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="36"/>
       <c r="B206" s="36"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="36"/>
       <c r="B207" s="36"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="36"/>
       <c r="B208" s="36"/>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="36"/>
       <c r="B209" s="36"/>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="36"/>
       <c r="B210" s="36"/>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="36"/>
       <c r="B211" s="36"/>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="36"/>
       <c r="B212" s="36"/>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="36"/>
       <c r="B213" s="36"/>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="36"/>
       <c r="B214" s="36"/>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="36"/>
       <c r="B215" s="36"/>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="36"/>
       <c r="B216" s="36"/>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="36"/>
       <c r="B217" s="36"/>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="36"/>
       <c r="B218" s="36"/>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="36"/>
       <c r="B219" s="36"/>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="36"/>
       <c r="B220" s="36"/>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="36"/>
       <c r="B221" s="36"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="36"/>
       <c r="B222" s="36"/>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="36"/>
       <c r="B223" s="36"/>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="36"/>
       <c r="B224" s="36"/>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="36"/>
       <c r="B225" s="36"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="36"/>
       <c r="B226" s="36"/>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="36"/>
       <c r="B227" s="36"/>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="36"/>
       <c r="B228" s="36"/>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="36"/>
       <c r="B229" s="36"/>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="36"/>
       <c r="B230" s="36"/>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="36"/>
       <c r="B231" s="36"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="36"/>
       <c r="B232" s="36"/>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="36"/>
       <c r="B233" s="36"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="36"/>
       <c r="B234" s="36"/>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="36"/>
       <c r="B235" s="36"/>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="36"/>
       <c r="B236" s="36"/>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="36"/>
       <c r="B237" s="36"/>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="36"/>
       <c r="B238" s="36"/>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="36"/>
       <c r="B239" s="36"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="36"/>
       <c r="B240" s="36"/>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="36"/>
       <c r="B241" s="36"/>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="36"/>
       <c r="B242" s="36"/>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="36"/>
       <c r="B243" s="36"/>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="36"/>
       <c r="B244" s="36"/>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="36"/>
       <c r="B245" s="36"/>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="36"/>
       <c r="B246" s="36"/>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="36"/>
       <c r="B247" s="36"/>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="36"/>
       <c r="B248" s="36"/>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="36"/>
       <c r="B249" s="36"/>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="36"/>
       <c r="B250" s="36"/>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="36"/>
       <c r="B251" s="36"/>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="36"/>
       <c r="B252" s="36"/>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="36"/>
       <c r="B253" s="36"/>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="36"/>
       <c r="B254" s="36"/>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="36"/>
       <c r="B255" s="36"/>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="36"/>
       <c r="B256" s="36"/>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="36"/>
       <c r="B257" s="36"/>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="36"/>
       <c r="B258" s="36"/>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="36"/>
       <c r="B259" s="36"/>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="36"/>
       <c r="B260" s="36"/>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="36"/>
       <c r="B261" s="36"/>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="36"/>
       <c r="B262" s="36"/>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="36"/>
       <c r="B263" s="36"/>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="36"/>
       <c r="B264" s="36"/>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="36"/>
       <c r="B265" s="36"/>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="36"/>
       <c r="B266" s="36"/>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="36"/>
       <c r="B267" s="36"/>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="36"/>
       <c r="B268" s="36"/>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="36"/>
       <c r="B269" s="36"/>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="36"/>
       <c r="B270" s="36"/>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="36"/>
       <c r="B271" s="36"/>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="36"/>
       <c r="B272" s="36"/>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="36"/>
       <c r="B273" s="36"/>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="36"/>
       <c r="B274" s="36"/>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="36"/>
       <c r="B275" s="36"/>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="36"/>
       <c r="B276" s="36"/>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="36"/>
       <c r="B277" s="36"/>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="36"/>
       <c r="B278" s="36"/>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="36"/>
       <c r="B279" s="36"/>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="36"/>
       <c r="B280" s="36"/>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="36"/>
       <c r="B281" s="36"/>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="36"/>
       <c r="B282" s="36"/>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="36"/>
       <c r="B283" s="36"/>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="36"/>
       <c r="B284" s="36"/>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="36"/>
       <c r="B285" s="36"/>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="36"/>
       <c r="B286" s="36"/>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="36"/>
       <c r="B287" s="36"/>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="36"/>
       <c r="B288" s="36"/>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="36"/>
       <c r="B289" s="36"/>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="36"/>
       <c r="B290" s="36"/>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="36"/>
       <c r="B291" s="36"/>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="36"/>
       <c r="B292" s="36"/>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="36"/>
       <c r="B293" s="36"/>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="36"/>
       <c r="B294" s="36"/>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="36"/>
       <c r="B295" s="36"/>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="36"/>
       <c r="B296" s="36"/>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="36"/>
       <c r="B297" s="36"/>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="36"/>
       <c r="B298" s="36"/>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" s="36"/>
       <c r="B299" s="36"/>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="36"/>
       <c r="B300" s="36"/>
     </row>
@@ -3257,29 +3255,29 @@
     <mergeCell ref="C2:F2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1:F1" location="'Пример АДРЕСНАЯ ИНФОРМАЦИЯ'!A1" display="Просмотреть пример" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C1:F1" location="'Пример АДРЕСНАЯ ИНФОРМАЦИЯ'!A1" display="Просмотреть пример"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="37" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="37" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" style="37" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="37" customWidth="1"/>
     <col min="3" max="3" width="28" style="37" customWidth="1"/>
-    <col min="4" max="4" width="47.140625" customWidth="1"/>
+    <col min="4" max="4" width="47.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>58</v>
       </c>
@@ -3295,46 +3293,46 @@
       <c r="E1" s="64"/>
       <c r="F1" s="64"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="62"/>
       <c r="D2" s="65"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="geU6qXBGhbpKCu4aPeT1zO5/rk8moABelUnTZE4AOs5Z9vEToilQ0DTTi/YswtfrTY2Z4pqfsNSbhM2eXtuNUA==" saltValue="XChPwZ0KMxQPMKGvQgwHsg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
-    <hyperlink ref="D1" location="'Пример РАБОТНИКИ ВЫХОДЯЩИЕ НА Р'!A1" display="Просмотреть пример" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D1" location="'Пример РАБОТНИКИ ВЫХОДЯЩИЕ НА Р'!A1" display="Просмотреть пример"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="152.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="152.5546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="77" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="77"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="75"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>3</v>
       </c>
@@ -3348,7 +3346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="38">
         <v>1</v>
       </c>
@@ -3360,7 +3358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="38">
         <v>2</v>
       </c>
@@ -3372,7 +3370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="38">
         <v>3</v>
       </c>
@@ -3384,7 +3382,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="175.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="175.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="38">
         <v>4</v>
       </c>
@@ -3396,7 +3394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38">
         <v>5</v>
       </c>
@@ -3408,7 +3406,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="205.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="205.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="38">
         <v>6</v>
       </c>
@@ -3420,7 +3418,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="219" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="219" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="38">
         <v>7</v>
       </c>
@@ -3432,7 +3430,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="38">
         <v>8</v>
       </c>
@@ -3444,7 +3442,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="38">
         <v>9</v>
       </c>
@@ -3456,7 +3454,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="38">
         <v>10</v>
       </c>
@@ -3468,7 +3466,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38">
         <v>11</v>
       </c>
@@ -3480,7 +3478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="38">
         <v>12</v>
       </c>
@@ -3492,7 +3490,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
         <v>13</v>
       </c>
@@ -3504,7 +3502,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="38">
         <v>14</v>
       </c>
@@ -3516,69 +3514,81 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="38">
         <v>15</v>
       </c>
       <c r="B17" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="67"/>
+      <c r="C17" s="66"/>
       <c r="D17" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="3" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="3" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="38">
         <v>16</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="67"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="33" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="68">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="38">
         <v>17</v>
       </c>
       <c r="B19" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="36"/>
+      <c r="C19" s="66"/>
       <c r="D19" s="31" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="68">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="38">
         <v>18</v>
       </c>
       <c r="B20" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="36"/>
+      <c r="C20" s="66"/>
       <c r="D20" s="31" t="s">
         <v>94</v>
       </c>
     </row>
+    <row r="21" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="38">
+        <v>19</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="66"/>
+      <c r="D21" s="33" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ktdPxxIsMhuxwMyNJeVv0XRKBi4jaxlzL46uhUcG/JIfg5Na0cKimE15KlbWW0l9qcUzxNMiwplTpwph2HrTuA==" saltValue="eghf58OFrpt75x8BXMmUYg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lTSE728Dx8MGlgV6VVoyhCYWrngNcmbwY/+JHG/wMS6jTDsSaxPgJyuhxEPlfVbWWfoxpQSFGVSvUCSVbm4TMA==" saltValue="zDGcHcoAmkNS9li6glkQGA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1:D1" location="'Пример Курирующее министерство'!A1" display="Просмотреть пример" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="C1:D1" location="'Пример Курирующее министерство'!A1" display="Просмотреть пример"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:I14"/>
   <sheetViews>
@@ -3586,33 +3596,33 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="73.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="2"/>
-    <col min="4" max="4" width="57.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="51.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="73.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="57.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="51.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="29" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="2"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="83"/>
+      <c r="E1" s="81"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>36</v>
       </c>
@@ -3627,7 +3637,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>37</v>
       </c>
@@ -3642,7 +3652,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>38</v>
       </c>
@@ -3653,7 +3663,7 @@
       <c r="D4" s="16"/>
       <c r="E4" s="15"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>41</v>
       </c>
@@ -3664,7 +3674,7 @@
       <c r="D5" s="13"/>
       <c r="E5" s="17"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>39</v>
       </c>
@@ -3675,7 +3685,7 @@
       <c r="D6" s="13"/>
       <c r="E6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>43</v>
       </c>
@@ -3686,14 +3696,14 @@
       <c r="D7" s="18"/>
       <c r="E7" s="19"/>
     </row>
-    <row r="9" spans="1:9" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="78" t="s">
+    <row r="9" spans="1:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="79"/>
-    </row>
-    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="77"/>
+    </row>
+    <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>49</v>
       </c>
@@ -3701,7 +3711,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>50</v>
       </c>
@@ -3709,7 +3719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>51</v>
       </c>
@@ -3717,7 +3727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
         <v>52</v>
       </c>
@@ -3738,8 +3748,8 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="D1:E1" location="'ДАННЫЕ О ВАШЕЙ ОРГАНИЗАЦИИ'!A1" display="Назад к заполнению" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="D1:E1" location="'ДАННЫЕ О ВАШЕЙ ОРГАНИЗАЦИИ'!A1" display="Назад к заполнению"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -3749,19 +3759,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.7109375" customWidth="1"/>
-    <col min="2" max="2" width="120.140625" customWidth="1"/>
+    <col min="1" max="1" width="46.6640625" customWidth="1"/>
+    <col min="2" max="2" width="120.109375" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>55</v>
       </c>
@@ -3772,7 +3782,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>53</v>
       </c>
@@ -3780,7 +3790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>57</v>
       </c>
@@ -3791,14 +3801,14 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="LnX9M5yxriaTVQim5SAi3WyXhXpQ9K/qOt07PnzzQH8z7LoyM0EszMHYLFLDkk5KuddSJv5Fv4qGALVO8N7/Gg==" saltValue="qVwDAvUgmk4CMeqcHxR/Hw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
-    <hyperlink ref="C1" location="'АДРЕСНАЯ ИНФОРМАЦИЯ'!A1" display="Вернуться к заполнению" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="C1" location="'АДРЕСНАЯ ИНФОРМАЦИЯ'!A1" display="Вернуться к заполнению"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -3806,19 +3816,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="62.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="152.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="3" customWidth="1"/>
+    <col min="2" max="3" width="62.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="152.5546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C1" s="59" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>3</v>
       </c>
@@ -3832,7 +3842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="38">
         <v>1</v>
       </c>
@@ -3844,7 +3854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="38">
         <v>2</v>
       </c>
@@ -3858,7 +3868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="38">
         <v>3</v>
       </c>
@@ -3870,7 +3880,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="175.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="175.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="38">
         <v>4</v>
       </c>
@@ -3882,7 +3892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38">
         <v>5</v>
       </c>
@@ -3894,7 +3904,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="205.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="205.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="38">
         <v>6</v>
       </c>
@@ -3906,7 +3916,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="219" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="219" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="38">
         <v>7</v>
       </c>
@@ -3918,7 +3928,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="38">
         <v>8</v>
       </c>
@@ -3930,7 +3940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="38">
         <v>9</v>
       </c>
@@ -3942,7 +3952,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="38">
         <v>10</v>
       </c>
@@ -3954,7 +3964,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38">
         <v>11</v>
       </c>
@@ -3966,7 +3976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="38">
         <v>12</v>
       </c>
@@ -3978,7 +3988,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
         <v>13</v>
       </c>
@@ -3990,7 +4000,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="38">
         <v>14</v>
       </c>
@@ -4002,7 +4012,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="38">
         <v>15</v>
       </c>
@@ -4014,31 +4024,31 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="tkOr+NASy5RyKWqbD/Sitwtlx56hD4cvD/CmA+0Ry5KCU/E1gjdhIGqe2sMXAJsmrT2jyD9Gyg6wME3rBxfoUw==" saltValue="p/H5Zca0PzgnMLuPS/AuqA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
-    <hyperlink ref="C1" location="'КУРИРУЮЩЕЕ МИНИСТЕРСТВО'!A1" display="Назад к заполнению" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="C1" location="'КУРИРУЮЩЕЕ МИНИСТЕРСТВО'!A1" display="Назад к заполнению"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="41" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="41" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="41" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="41" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>58</v>
       </c>
@@ -4052,7 +4062,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>61</v>
       </c>
@@ -4063,7 +4073,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
         <v>64</v>
       </c>
@@ -4074,7 +4084,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
         <v>67</v>
       </c>
@@ -4085,7 +4095,7 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="GZ2Ec/CkDA4FEzEhF9PzvByO3IfqaNYf8gK4wcMhiXMc5XKUD4YxsPoOhzR+llp0F49/d/LE/8idHurxM6u+ug==" saltValue="Wyscc8WC0+vXYvIsRDnk3A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
-    <hyperlink ref="D1" location="'РАБОТНИКИ ВЫХОДЯЩИЕ НА РАБОТУ'!A1" display="Вернуть к заполнению" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="D1" location="'РАБОТНИКИ ВЫХОДЯЩИЕ НА РАБОТУ'!A1" display="Вернуть к заполнению"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/template.xlsx
+++ b/src/main/resources/template.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="X63vqxGaR0w3itOZCFSudR4Bv4X4jNKmFGHlbFTqctsd/u8oR4S3M35A+12MYHgTdmTrEWGpbu8lqphyfAAk9w==" workbookSaltValue="kUk0Az6feS+owcQsOXQmqw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796"/>
   </bookViews>
   <sheets>
     <sheet name="ДАННЫЕ О ВАШЕЙ ОРГАНИЗАЦИИ" sheetId="1" r:id="rId1"/>
@@ -655,32 +655,6 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Суммарная численность работников, в отношении которых установлен режим работы нерабочего дня с сохранением заработной платы</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Суммарная численность работников, подлежащих переводу на дистанционный режим работы</t>
     </r>
   </si>
@@ -720,9 +694,6 @@
     <t>Назад к заполнению</t>
   </si>
   <si>
-    <t>Версия шаблона 01</t>
-  </si>
-  <si>
     <t>Просмотреть пример</t>
   </si>
   <si>
@@ -786,10 +757,39 @@
     <t>Росгвардия</t>
   </si>
   <si>
-    <t>Комитет по межнациональным отношениям и развитию гражданских инициатив АГИП</t>
-  </si>
-  <si>
-    <t>Деятельность религиозных организаций в целях совместного исповедания и распространения веры, в том числе реализация религиозными организациями предметов религиозного назначения и религиозной литературы</t>
+    <t>Бурприроднадзор</t>
+  </si>
+  <si>
+    <t>Юридические лица и (или) индивидуальные предприниматели, осуществляющие охотхозяйственную деятельность, мероприятия по защите охотничьих ресурсов от болезней, а также мероприятия по добыче охотничьих животных в целях предотвращения нанесения ущерба здоровью граждан, возникновения и распространения болезней охотничьих ресурсов, ущерба объектам животного мира и среде их обитания посредством проведения охоты в целях регулирования численности охотничьих ресурсов, охоты в целях научно-исследовательской деятельности</t>
+  </si>
+  <si>
+    <t>Версия шаблона 02</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Суммарная численность работников, в отношении которых установлен режим работы нерабочего дня с сохранением заработной платы</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1300,7 +1300,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1458,9 +1458,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1838,8 +1835,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1851,14 +1848,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
       <c r="E1" s="56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -1894,7 +1891,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" s="42"/>
       <c r="C5" s="25"/>
@@ -1934,10 +1931,10 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="69"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1951,9 +1948,9 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="0.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="52" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="B12" s="53"/>
       <c r="C12" s="2"/>
@@ -1962,7 +1959,7 @@
     </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="53"/>
       <c r="C13" s="2"/>
@@ -1971,7 +1968,7 @@
     </row>
     <row r="14" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="55"/>
       <c r="C14" s="2"/>
@@ -1979,11 +1976,11 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="57" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5AVdqQzUuNz7GAwj8YJxj/LmgRHpX1EX+4xdPYIdd3o0yqFFzY7GQEKqPkYcrcxuPa8SBksA/5OmDIDhw3D6/A==" saltValue="ien8wy5wMspg57SfBYXDZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hABBoSAYHA2zkBrUxcWFCONIx94FMdLxFzAghRb6OvGOVMvUTe692JSoFuCPu7w7ivE2YOdFFAwTWOIxtZ33VA==" saltValue="E3Mn28d1Lk8DOpkVPQXz1A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="2">
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A1:D1"/>
@@ -2008,7 +2005,7 @@
       <formula>AND(LEN($B$5)&lt;&gt;13,LEN($B$5)&lt;&gt;15)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:B14">
+  <conditionalFormatting sqref="B11 B13:B14">
     <cfRule type="containsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(B11))=0</formula>
     </cfRule>
@@ -2042,22 +2039,22 @@
         <v>55</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
+        <v>78</v>
+      </c>
+      <c r="C1" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="36"/>
@@ -3291,7 +3288,7 @@
         <v>60</v>
       </c>
       <c r="D1" s="63" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E1" s="64"/>
       <c r="F1" s="64"/>
@@ -3313,8 +3310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3326,14 +3323,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="76"/>
+      <c r="A1" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="75"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
@@ -3343,7 +3340,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D2" s="39" t="s">
         <v>5</v>
@@ -3534,51 +3531,51 @@
         <v>16</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C18" s="66"/>
       <c r="D18" s="33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="67">
+      <c r="A19" s="38">
         <v>17</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C19" s="66"/>
       <c r="D19" s="31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="67">
+      <c r="A20" s="38">
         <v>18</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C20" s="66"/>
       <c r="D20" s="31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="38">
         <v>19</v>
       </c>
-      <c r="B21" s="31" t="s">
-        <v>96</v>
+      <c r="B21" s="33" t="s">
+        <v>94</v>
       </c>
       <c r="C21" s="66"/>
-      <c r="D21" s="31" t="s">
-        <v>97</v>
+      <c r="D21" s="33" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2UNuMLcZRVhgVfi2tuzGIo5+t2mG7pjEfJMLfg0qqzmQn9jybdJuWIkFnAzTynFIFTGBDJLSgEp21WpaNE+uew==" saltValue="4yXutuFIZiYr5p9MLJEicA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lTSE728Dx8MGlgV6VVoyhCYWrngNcmbwY/+JHG/wMS6jTDsSaxPgJyuhxEPlfVbWWfoxpQSFGVSvUCSVbm4TMA==" saltValue="zDGcHcoAmkNS9li6glkQGA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
@@ -3611,15 +3608,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="82"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="81"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -3701,10 +3698,10 @@
     </row>
     <row r="9" spans="1:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="78"/>
+      <c r="B10" s="77"/>
     </row>
     <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
@@ -3782,7 +3779,7 @@
         <v>56</v>
       </c>
       <c r="C1" s="58" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3828,7 +3825,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C1" s="59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -3839,7 +3836,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D2" s="39" t="s">
         <v>5</v>
@@ -3865,7 +3862,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>9</v>
@@ -4062,7 +4059,7 @@
         <v>60</v>
       </c>
       <c r="D1" s="60" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
